--- a/literature_extraction.xlsx
+++ b/literature_extraction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jower\OneDrive\Documents\GitHub\Species-Traits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2038" documentId="8_{8303F361-5CFA-49CF-93EB-E47B0D017CB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{45BAFCE0-C8F9-4312-9D84-0C6F00FCDB9E}"/>
+  <xr:revisionPtr revIDLastSave="2039" documentId="8_{8303F361-5CFA-49CF-93EB-E47B0D017CB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B3AAD7FE-04E4-4A37-8E34-2B4BFBBCA738}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{163C3060-5853-4BB6-B46C-A85E56A5A6D8}"/>
+    <workbookView xWindow="3555" yWindow="1575" windowWidth="23040" windowHeight="13170" activeTab="1" xr2:uid="{163C3060-5853-4BB6-B46C-A85E56A5A6D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2893,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4942DADD-73DC-45E2-A058-0029641B6054}">
   <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
@@ -6338,9 +6338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C553106-9EFB-4C5F-86D3-BA2759CF7F90}">
   <dimension ref="A1:AM204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6351,6 +6351,7 @@
     <col min="14" max="14" width="15.5703125" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" customWidth="1"/>
     <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
     <col min="27" max="27" width="12.140625" customWidth="1"/>
     <col min="39" max="39" width="9.42578125" customWidth="1"/>
   </cols>

--- a/literature_extraction.xlsx
+++ b/literature_extraction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jower\OneDrive\Documents\GitHub\Species-Traits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2039" documentId="8_{8303F361-5CFA-49CF-93EB-E47B0D017CB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B3AAD7FE-04E4-4A37-8E34-2B4BFBBCA738}"/>
+  <xr:revisionPtr revIDLastSave="2674" documentId="8_{8303F361-5CFA-49CF-93EB-E47B0D017CB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{25DAFE53-958F-476B-996A-430E70DC9F65}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="1575" windowWidth="23040" windowHeight="13170" activeTab="1" xr2:uid="{163C3060-5853-4BB6-B46C-A85E56A5A6D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{163C3060-5853-4BB6-B46C-A85E56A5A6D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="1017">
   <si>
     <t>Title</t>
   </si>
@@ -2517,6 +2517,573 @@
   </si>
   <si>
     <t xml:space="preserve">half_sat_mg_N_L </t>
+  </si>
+  <si>
+    <t>Knops, Altenburger, Segner</t>
+  </si>
+  <si>
+    <t>Alterations of physiological energetics, growth and reproduction of Daphnia magna under toxicant stress</t>
+  </si>
+  <si>
+    <t>daphnia magna</t>
+  </si>
+  <si>
+    <t>reproduction</t>
+  </si>
+  <si>
+    <t>Daphnia</t>
+  </si>
+  <si>
+    <t>magna</t>
+  </si>
+  <si>
+    <t>daphnia_reproduction</t>
+  </si>
+  <si>
+    <t>daphnia_growth</t>
+  </si>
+  <si>
+    <t>daphnia_survival</t>
+  </si>
+  <si>
+    <t>units_reproduction</t>
+  </si>
+  <si>
+    <t>units_growth</t>
+  </si>
+  <si>
+    <t>units_survival</t>
+  </si>
+  <si>
+    <t>food_type</t>
+  </si>
+  <si>
+    <t>Scenedesmus vacuolatus</t>
+  </si>
+  <si>
+    <t>per indiv per day</t>
+  </si>
+  <si>
+    <t>Biesinger and Christensen 1972</t>
+  </si>
+  <si>
+    <t>Effects of Various metals on survival, growth and reproduction and metabolism of Daphnia magna</t>
+  </si>
+  <si>
+    <t>didn't report actual growth/repro just ion concentrations where it was reduced</t>
+  </si>
+  <si>
+    <t>Bodar et al 1988</t>
+  </si>
+  <si>
+    <t>Effect of cadmium on the reproduction strategy of Daphnia magna</t>
+  </si>
+  <si>
+    <t>reproduction/growth</t>
+  </si>
+  <si>
+    <t>Chlorella pyrenoidosa</t>
+  </si>
+  <si>
+    <t>sd_repro</t>
+  </si>
+  <si>
+    <t>sd_growth</t>
+  </si>
+  <si>
+    <t>days to first brood</t>
+  </si>
+  <si>
+    <t>Brausch et al 2010</t>
+  </si>
+  <si>
+    <t>Effects of functionalized fullerenes on bifenthrin and tribufos toxicity to daphnia magna: survival, reproduction, and growth rate</t>
+  </si>
+  <si>
+    <t>P. subcapitata</t>
+  </si>
+  <si>
+    <t>control of bifenthrin only experiment</t>
+  </si>
+  <si>
+    <t>contro of tribufos only experiment</t>
+  </si>
+  <si>
+    <t>Bridges et al 1996</t>
+  </si>
+  <si>
+    <t>Chronic toxicity of Great lakes sediments to Daphnia magna: elutriate effects on survival, reproduction and population growth</t>
+  </si>
+  <si>
+    <t>mixed trout chow and Selenastrum capricornutum</t>
+  </si>
+  <si>
+    <t>Fernandez-Casalderrey, Ferrando, and Andreu-Moliner 1993</t>
+  </si>
+  <si>
+    <t>Effects of endosulfan on survival, growth, and reproduction of Daphnia magna</t>
+  </si>
+  <si>
+    <t>reproduction/growth/survival</t>
+  </si>
+  <si>
+    <t>Nannochloris oculata</t>
+  </si>
+  <si>
+    <t>sd_survival</t>
+  </si>
+  <si>
+    <t>days to death</t>
+  </si>
+  <si>
+    <t>Chandini 1989</t>
+  </si>
+  <si>
+    <t>Survival, growth and reproduction of Daphnia carinata (Crustacea:Cladocera) Exposed to chronic cadium stress at different food (Chlorella) levels</t>
+  </si>
+  <si>
+    <t>not daphnia magna but does have 3 food concentrations so may be worth going back to</t>
+  </si>
+  <si>
+    <t>Chevre et al 2005</t>
+  </si>
+  <si>
+    <t>Modeling the concentration-response function of the herbicide dinoseb of Daphnia magna (survival time, reproduction) and Pseudokirchneriella subcapitata (growth rate)</t>
+  </si>
+  <si>
+    <t>also worth looking at model</t>
+  </si>
+  <si>
+    <t>95CI</t>
+  </si>
+  <si>
+    <t>36.8-70.3</t>
+  </si>
+  <si>
+    <t>longevitity</t>
+  </si>
+  <si>
+    <t>Pseudokirchneriella subcapitata</t>
+  </si>
+  <si>
+    <t>survival/ algae growth</t>
+  </si>
+  <si>
+    <t>72hr</t>
+  </si>
+  <si>
+    <t>.05-.056 (95CI)</t>
+  </si>
+  <si>
+    <t>Dave 1984</t>
+  </si>
+  <si>
+    <t>Effects of flouride on growth, reproduction and survival in daphnia magna</t>
+  </si>
+  <si>
+    <t>has survival curves but not days to death…which maybe would be better hmmm…, has body length but not obviously analogous to my data but could be worth checking out later</t>
+  </si>
+  <si>
+    <t>Dave 1984a</t>
+  </si>
+  <si>
+    <t>Effects of waterborne iron on growth, reproduction, survival and haemoglobin in Daphnia magna</t>
+  </si>
+  <si>
+    <t>survival</t>
+  </si>
+  <si>
+    <t>26.2-30.8</t>
+  </si>
+  <si>
+    <t>De Coen and Janssen</t>
+  </si>
+  <si>
+    <t>The use of biomarkers in Daphnia magna toxicity testing. IV. Cellular Energy allocation: a new methodology to assess the energy budget of toxicant-stressed Daphnia populations</t>
+  </si>
+  <si>
+    <t>population level</t>
+  </si>
+  <si>
+    <t>Duchet et al 2010</t>
+  </si>
+  <si>
+    <t>Chitobiase activity as an indicator of altered survival, growth, and reproduction in Daphnia pulex and Daphnia magna (Crustacea: Cladocera) exposed to spinosad and diflubenzuron</t>
+  </si>
+  <si>
+    <t>Fernandez-Casalderrey, Ferrando, and Andreu-Moliner 1995</t>
+  </si>
+  <si>
+    <t>Chronic toxicity of methylparathion to Daphnia magna: Effects on survival, reproduction and growth</t>
+  </si>
+  <si>
+    <t>no control reported?</t>
+  </si>
+  <si>
+    <t>Flaherty and Dodson 2005</t>
+  </si>
+  <si>
+    <t>Effects of pharmaceuticals on Daphnia survival, growth, and reproduction</t>
+  </si>
+  <si>
+    <t>just show p values</t>
+  </si>
+  <si>
+    <t>Haeba et al 2008</t>
+  </si>
+  <si>
+    <t>Selected endocrine disrupting compounds (vinclozolin, flutamide, ketoconazole and dicofol): effects on survival, occurrence of males, growth, molting and reproduction of Daphnia magna</t>
+  </si>
+  <si>
+    <t>Hanazato 1991</t>
+  </si>
+  <si>
+    <t>Effects of long and short-term exposure to carbaryl on survival, growth and reproduction of Daphnia ambigua</t>
+  </si>
+  <si>
+    <t>not daphnia magna</t>
+  </si>
+  <si>
+    <t>Hayashi et al 2008</t>
+  </si>
+  <si>
+    <t>Reproduction recovery of the crustacean Daphnia magna after chronic exposure to ibuprofen</t>
+  </si>
+  <si>
+    <t>Chlorella vulgaris</t>
+  </si>
+  <si>
+    <t>Heckmann et al. 2007</t>
+  </si>
+  <si>
+    <t>Chronic toxicity of ibuprofen to Daphnia magna: Effects on life history traits and population dynamics</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>no control numbers reported</t>
+  </si>
+  <si>
+    <t>Huggett and Stoddard 2011</t>
+  </si>
+  <si>
+    <t>Effects of the artificial sweetener sucralose on Daphnia magna and Americamysis bahia survival, growth and reproduction</t>
+  </si>
+  <si>
+    <t>not outcomes of interest</t>
+  </si>
+  <si>
+    <t>Kamaya, Tokita and Suzuki 2005</t>
+  </si>
+  <si>
+    <t>Effects of dehydroabietic acid and abietic acid on survival, reproduction, and growth of the crustacean Daphnia magna</t>
+  </si>
+  <si>
+    <t>days to maturity</t>
+  </si>
+  <si>
+    <t>Selenastrum capricornutum</t>
+  </si>
+  <si>
+    <t>Leeuwen et al 1985</t>
+  </si>
+  <si>
+    <t>Aquatic toxicological aspects of dithiocarbamatesa nd related compounds. II Effects on survival, reproduction and growth of daphnia magna</t>
+  </si>
+  <si>
+    <t>not obvious outcomes but does have survival curves</t>
+  </si>
+  <si>
+    <t>Effects of lanthanum and lanthanum-modified clay on growth, survival and reproduction of Daphnia magna</t>
+  </si>
+  <si>
+    <t>Lurling and Tolman 2009</t>
+  </si>
+  <si>
+    <t>Scenedesmus obliquus</t>
+  </si>
+  <si>
+    <t>Martinez-Jeronimo et al 1994</t>
+  </si>
+  <si>
+    <t>Effect of food type and concentration on the survival, longevity, and reproduction of Daphnia magna</t>
+  </si>
+  <si>
+    <t>95_growth</t>
+  </si>
+  <si>
+    <t>Martinez-Jeronimo et al 1995</t>
+  </si>
+  <si>
+    <t>Martinez-Jeronimo et al 1996</t>
+  </si>
+  <si>
+    <t>Martinez-Jeronimo et al 1997</t>
+  </si>
+  <si>
+    <t>Martinez-Jeronimo et al 1998</t>
+  </si>
+  <si>
+    <t>Martinez-Jeronimo et al 1999</t>
+  </si>
+  <si>
+    <t>Ankistrodesmus falcatus</t>
+  </si>
+  <si>
+    <t>Scenedesmus incrassatulus</t>
+  </si>
+  <si>
+    <t>growth/survival</t>
+  </si>
+  <si>
+    <t>no daily reproduction does have survival curves</t>
+  </si>
+  <si>
+    <t>McKee and Knowles 1986</t>
+  </si>
+  <si>
+    <t>Effects of Fenvalerate on Biochemical Paramters, Survival, and Reproduction of Daphnia magna</t>
+  </si>
+  <si>
+    <t>endpoints not of interest</t>
+  </si>
+  <si>
+    <t>Omojowo et al 2009</t>
+  </si>
+  <si>
+    <t>Evaluation of Citric acid and potassium sorbate as preservatives on the safety and shelf-life of smoked catfish</t>
+  </si>
+  <si>
+    <t>not about daphnia</t>
+  </si>
+  <si>
+    <t>Sancho, Villarroel and Ferrando 2016</t>
+  </si>
+  <si>
+    <t>Assessment of chronic effects of tebuconazole on survival, reproduction and growth of Daphnia magna after different exposure times</t>
+  </si>
+  <si>
+    <t>Stephenson and Watts</t>
+  </si>
+  <si>
+    <t>Chronic toxicity tests with Daphnia magna: the effects of different food and temperature regimes on survival reproduction and growth</t>
+  </si>
+  <si>
+    <t>error reported is confusing…..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agatz et al </t>
+  </si>
+  <si>
+    <t>SI Feeding inhibition explains effects of imidacloprid on the growth, maturation, reproduction and survival of Daphnia magna</t>
+  </si>
+  <si>
+    <t>has survival and growth curves</t>
+  </si>
+  <si>
+    <t>Villarroel et al 2003</t>
+  </si>
+  <si>
+    <t>Acute, chronic and sublethal effects of the herbicide propanil on Daphnia magna</t>
+  </si>
+  <si>
+    <t>day to first brood</t>
+  </si>
+  <si>
+    <t>Effects of waterborne uranium on survival, growth, reproduction and physiological processes of the freshwater cladoceran Daphnia magna</t>
+  </si>
+  <si>
+    <t>Zeman et al 2008</t>
+  </si>
+  <si>
+    <t>Chlamydomonas reinhardtii</t>
+  </si>
+  <si>
+    <t>Zhu, Chang, and Chen 2010</t>
+  </si>
+  <si>
+    <t>Toxicity and bioaccumulation of TiO2 nanoparticle aggregates in Daphnia magna</t>
+  </si>
+  <si>
+    <t>Adamsson et al 1998</t>
+  </si>
+  <si>
+    <t>Toxicity identification evaluation of ammonia, nitrate and heavy metals at the stensund wasterwater aquaculture plant, sweden</t>
+  </si>
+  <si>
+    <t>excretion</t>
+  </si>
+  <si>
+    <t>about ammonium toxicity to d. magna</t>
+  </si>
+  <si>
+    <t>Adamsson 2000</t>
+  </si>
+  <si>
+    <t>Potential use of human urine by greenhouse culturing of microalgae (Scenedesmus acuminatus), zooplankton(Daphnia magna) and tomatoes</t>
+  </si>
+  <si>
+    <t>not endpoints of interest</t>
+  </si>
+  <si>
+    <t>Al-Reasi et al 2013</t>
+  </si>
+  <si>
+    <t>The effect of dissolved organic matter (DOM) on sodium transport and nitrogenous wastete excretion of the freshwater cladoceran (Daphnia magna) at circumneutral and low pH</t>
+  </si>
+  <si>
+    <t>Excretion rate</t>
+  </si>
+  <si>
+    <t>sd_error_excretion</t>
+  </si>
+  <si>
+    <t>units_excretion</t>
+  </si>
+  <si>
+    <t>umol per gram per hour</t>
+  </si>
+  <si>
+    <t>Arner and Koivisto 1993</t>
+  </si>
+  <si>
+    <t>Effects of salinity on metabolism and life history characteristics of Daphnia magna</t>
+  </si>
+  <si>
+    <t>Scenedesmus obtusiusculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">also has growth curves, citation that D.magna produces ammonium as waste product, and time scale of 5 hours </t>
+  </si>
+  <si>
+    <t>about 150 indiv so divided it out</t>
+  </si>
+  <si>
+    <t>ug per liter per hour per indiv</t>
+  </si>
+  <si>
+    <t>Baillieul, Selens and Blust 1996</t>
+  </si>
+  <si>
+    <t>Scope for growth and fitness of Daphnia magna in salinity-stressed conditions</t>
+  </si>
+  <si>
+    <t>has growth and survival curves</t>
+  </si>
+  <si>
+    <t>Bianchini and Wood 2003</t>
+  </si>
+  <si>
+    <t>Mechanisms of acute silver toxicity in daphnia magna</t>
+  </si>
+  <si>
+    <t>Bohrer and Lampert 1988</t>
+  </si>
+  <si>
+    <t>Simultaneous measurement of the effect of food concentration on assimilation and respiration in daphnia magna Straus</t>
+  </si>
+  <si>
+    <t>assimilation rate and respiration rate</t>
+  </si>
+  <si>
+    <t>Coen and Janssen</t>
+  </si>
+  <si>
+    <t>The missing biomarker link: relationships between effects on the cellular energy allocation biomarker of toxicant-stressed Daphnia magna and corresponding population characteristics</t>
+  </si>
+  <si>
+    <t>could get reproduction</t>
+  </si>
+  <si>
+    <t>Xiang, Yang and Chen 2011</t>
+  </si>
+  <si>
+    <t>Concentration-response function of nitrite on survival,molting, and reproduction of Daphnia similoides</t>
+  </si>
+  <si>
+    <t>Conover, Bedo and Spry 1988</t>
+  </si>
+  <si>
+    <t>Arctic zooplankton prefer living ice algae: a caution for zooplankton excretion measurements</t>
+  </si>
+  <si>
+    <t>Fish and Morel 1983</t>
+  </si>
+  <si>
+    <t>Characterization of organic copper-complexing agents released by Daphnia magna</t>
+  </si>
+  <si>
+    <t>copper excretion</t>
+  </si>
+  <si>
+    <t>Fukuhara and Yasuda 1989</t>
+  </si>
+  <si>
+    <t>Ammonium excretion by some freshwater zoobenthos from a eutrophic lake</t>
+  </si>
+  <si>
+    <t>not daphnia</t>
+  </si>
+  <si>
+    <t>Gardner and Miller III 1980</t>
+  </si>
+  <si>
+    <t>Intracellular composition and net release rates of free amino acids in daphnia magna</t>
+  </si>
+  <si>
+    <t>Gardner and Miller III 1981</t>
+  </si>
+  <si>
+    <t>Gardner and Miller III 1982</t>
+  </si>
+  <si>
+    <t>Gardner and Miller III 1983</t>
+  </si>
+  <si>
+    <t>Gardner and Miller III 1984</t>
+  </si>
+  <si>
+    <t>Gardner and Miller III 1985</t>
+  </si>
+  <si>
+    <t>Gardner and Miller III 1986</t>
+  </si>
+  <si>
+    <t>Gardner and Miller III 1987</t>
+  </si>
+  <si>
+    <t>Gardner and Miller III 1988</t>
+  </si>
+  <si>
+    <t>nmol ammonium per mg dry weight per hour</t>
+  </si>
+  <si>
+    <t>Guo et al 2013</t>
+  </si>
+  <si>
+    <t>Biological uptake and depuration of radio-labeled graphene by daphnia magna</t>
+  </si>
+  <si>
+    <t>graphene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lampert and Gabriel </t>
+  </si>
+  <si>
+    <t>Tracer kinetics in Daphnia: an improved two-compartment model and experimental test</t>
+  </si>
+  <si>
+    <t>respiration and carbon</t>
+  </si>
+  <si>
+    <t>Lei and Armitage 1979</t>
+  </si>
+  <si>
+    <t>Ecological energetics of a daphnia ambigua popultion</t>
+  </si>
+  <si>
+    <t>not daphnia magna but does have excretion for other Daphnia sp.</t>
   </si>
 </sst>
 </file>
@@ -2891,10 +3458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4942DADD-73DC-45E2-A058-0029641B6054}">
-  <dimension ref="A1:G198"/>
+  <dimension ref="A1:G245"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D198" sqref="D198"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6328,6 +6895,815 @@
         <v>772</v>
       </c>
     </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>828</v>
+      </c>
+      <c r="B199" t="s">
+        <v>829</v>
+      </c>
+      <c r="C199" t="s">
+        <v>830</v>
+      </c>
+      <c r="D199" t="s">
+        <v>42</v>
+      </c>
+      <c r="E199" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>843</v>
+      </c>
+      <c r="B200" t="s">
+        <v>844</v>
+      </c>
+      <c r="C200" t="s">
+        <v>830</v>
+      </c>
+      <c r="D200" t="s">
+        <v>48</v>
+      </c>
+      <c r="F200" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>846</v>
+      </c>
+      <c r="B201" t="s">
+        <v>847</v>
+      </c>
+      <c r="C201" t="s">
+        <v>830</v>
+      </c>
+      <c r="D201" t="s">
+        <v>42</v>
+      </c>
+      <c r="E201" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>853</v>
+      </c>
+      <c r="B202" t="s">
+        <v>854</v>
+      </c>
+      <c r="C202" t="s">
+        <v>830</v>
+      </c>
+      <c r="D202" t="s">
+        <v>42</v>
+      </c>
+      <c r="E202" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>858</v>
+      </c>
+      <c r="B203" t="s">
+        <v>859</v>
+      </c>
+      <c r="C203" t="s">
+        <v>830</v>
+      </c>
+      <c r="D203" t="s">
+        <v>42</v>
+      </c>
+      <c r="E203" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>861</v>
+      </c>
+      <c r="B204" t="s">
+        <v>862</v>
+      </c>
+      <c r="C204" t="s">
+        <v>830</v>
+      </c>
+      <c r="D204" t="s">
+        <v>705</v>
+      </c>
+      <c r="E204" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F219" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F222" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F223" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F225" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F230" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F231" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F235" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F236" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F237" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F238" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F239" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F240" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F241" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F243" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>1016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6336,27 +7712,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C553106-9EFB-4C5F-86D3-BA2759CF7F90}">
-  <dimension ref="A1:AM204"/>
+  <dimension ref="A1:BC238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A239" sqref="A239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" customWidth="1"/>
-    <col min="39" max="39" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" customWidth="1"/>
+    <col min="25" max="25" width="16.140625" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" customWidth="1"/>
+    <col min="31" max="31" width="11.28515625" customWidth="1"/>
+    <col min="32" max="32" width="17.85546875" customWidth="1"/>
+    <col min="35" max="35" width="15.7109375" customWidth="1"/>
+    <col min="43" max="43" width="12.140625" customWidth="1"/>
+    <col min="55" max="55" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -6376,67 +7755,67 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>966</v>
+      </c>
+      <c r="H1" t="s">
+        <v>967</v>
+      </c>
+      <c r="I1" t="s">
+        <v>968</v>
+      </c>
+      <c r="J1" t="s">
+        <v>834</v>
+      </c>
+      <c r="K1" t="s">
+        <v>850</v>
+      </c>
+      <c r="L1" t="s">
+        <v>837</v>
+      </c>
+      <c r="M1" t="s">
+        <v>835</v>
+      </c>
+      <c r="N1" t="s">
+        <v>851</v>
+      </c>
+      <c r="O1" t="s">
+        <v>925</v>
+      </c>
+      <c r="P1" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>836</v>
+      </c>
+      <c r="R1" t="s">
+        <v>865</v>
+      </c>
+      <c r="S1" t="s">
+        <v>873</v>
+      </c>
+      <c r="T1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" t="s">
+        <v>839</v>
+      </c>
+      <c r="V1" t="s">
+        <v>840</v>
+      </c>
+      <c r="W1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="X1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Y1" t="s">
         <v>193</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Z1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AA1" t="s">
         <v>92</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>827</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" t="s">
-        <v>116</v>
-      </c>
-      <c r="S1" t="s">
-        <v>193</v>
-      </c>
-      <c r="T1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W1" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>8</v>
       </c>
       <c r="AB1" t="s">
         <v>7</v>
@@ -6445,37 +7824,85 @@
         <v>9</v>
       </c>
       <c r="AD1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>827</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" t="s">
         <v>116</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU1" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AV1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AW1" t="s">
         <v>122</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AX1" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AY1" t="s">
         <v>9</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AZ1" t="s">
         <v>116</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BA1" t="s">
         <v>805</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BB1" t="s">
         <v>718</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BC1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -6491,23 +7918,23 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="AA2">
+      <c r="AQ2">
         <v>0.94</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AR2" t="s">
         <v>19</v>
       </c>
-      <c r="AE2">
+      <c r="AU2">
         <v>1</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AV2" t="s">
         <v>41</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="BC2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -6523,23 +7950,23 @@
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="AA3">
+      <c r="AQ3">
         <v>0.92</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AR3" t="s">
         <v>26</v>
       </c>
-      <c r="AE3">
+      <c r="AU3">
         <v>3</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AV3" t="s">
         <v>41</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="BC3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -6555,23 +7982,23 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="AA4">
+      <c r="AQ4">
         <v>0.63400000000000001</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AR4" t="s">
         <v>27</v>
       </c>
-      <c r="AE4">
+      <c r="AU4">
         <v>5</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AV4" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="BC4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -6587,23 +8014,23 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="AA5">
+      <c r="AQ5">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AR5" t="s">
         <v>28</v>
       </c>
-      <c r="AE5">
+      <c r="AU5">
         <v>7</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AV5" t="s">
         <v>41</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="BC5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6619,23 +8046,23 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="AA6">
+      <c r="AQ6">
         <v>1.139</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AR6" t="s">
         <v>29</v>
       </c>
-      <c r="AE6">
+      <c r="AU6">
         <v>1</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AV6" t="s">
         <v>41</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="BC6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -6651,23 +8078,23 @@
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="AA7">
+      <c r="AQ7">
         <v>0.92400000000000004</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AR7" t="s">
         <v>30</v>
       </c>
-      <c r="AE7">
+      <c r="AU7">
         <v>3</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AV7" t="s">
         <v>41</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="BC7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -6683,23 +8110,23 @@
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="AA8">
+      <c r="AQ8">
         <v>0.63200000000000001</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AR8" t="s">
         <v>31</v>
       </c>
-      <c r="AE8">
+      <c r="AU8">
         <v>5</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AV8" t="s">
         <v>41</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="BC8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -6715,23 +8142,23 @@
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="AA9">
+      <c r="AQ9">
         <v>0.505</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AR9" t="s">
         <v>32</v>
       </c>
-      <c r="AE9">
+      <c r="AU9">
         <v>7</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AV9" t="s">
         <v>41</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="BC9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -6750,23 +8177,23 @@
       <c r="F10">
         <v>30</v>
       </c>
-      <c r="V10">
+      <c r="AL10">
         <v>0.33</v>
       </c>
-      <c r="W10" t="s">
+      <c r="AM10" t="s">
         <v>81</v>
       </c>
-      <c r="X10">
+      <c r="AN10">
         <v>0.06</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AV10" t="s">
         <v>80</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="BC10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -6785,20 +8212,20 @@
       <c r="F11">
         <v>30</v>
       </c>
-      <c r="V11">
+      <c r="AL11">
         <v>0.59</v>
       </c>
-      <c r="W11" t="s">
+      <c r="AM11" t="s">
         <v>81</v>
       </c>
-      <c r="X11">
+      <c r="AN11">
         <v>0.11</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="BC11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -6817,20 +8244,20 @@
       <c r="F12">
         <v>30</v>
       </c>
-      <c r="V12">
+      <c r="AL12">
         <v>1.05</v>
       </c>
-      <c r="W12" t="s">
+      <c r="AM12" t="s">
         <v>81</v>
       </c>
-      <c r="X12">
+      <c r="AN12">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="BC12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -6849,20 +8276,20 @@
       <c r="F13">
         <v>30</v>
       </c>
-      <c r="V13">
+      <c r="AL13">
         <v>0.17</v>
       </c>
-      <c r="W13" t="s">
+      <c r="AM13" t="s">
         <v>81</v>
       </c>
-      <c r="X13">
+      <c r="AN13">
         <v>0.03</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="BC13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -6881,20 +8308,20 @@
       <c r="F14">
         <v>30</v>
       </c>
-      <c r="V14">
+      <c r="AL14">
         <v>0.34</v>
       </c>
-      <c r="W14" t="s">
+      <c r="AM14" t="s">
         <v>81</v>
       </c>
-      <c r="X14">
+      <c r="AN14">
         <v>0.04</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="BC14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -6913,20 +8340,20 @@
       <c r="F15">
         <v>30</v>
       </c>
-      <c r="V15">
+      <c r="AL15">
         <v>0.88</v>
       </c>
-      <c r="W15" t="s">
+      <c r="AM15" t="s">
         <v>81</v>
       </c>
-      <c r="X15">
+      <c r="AN15">
         <v>0.1</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="BC15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -6945,20 +8372,20 @@
       <c r="F16">
         <v>30</v>
       </c>
-      <c r="V16">
+      <c r="AL16">
         <v>0.76</v>
       </c>
-      <c r="W16" t="s">
+      <c r="AM16" t="s">
         <v>81</v>
       </c>
-      <c r="X16">
+      <c r="AN16">
         <v>0.02</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="BC16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -6977,20 +8404,20 @@
       <c r="F17">
         <v>30</v>
       </c>
-      <c r="V17">
+      <c r="AL17">
         <v>0.51</v>
       </c>
-      <c r="W17" t="s">
+      <c r="AM17" t="s">
         <v>81</v>
       </c>
-      <c r="X17">
+      <c r="AN17">
         <v>0.05</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="BC17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -7009,20 +8436,20 @@
       <c r="F18">
         <v>30</v>
       </c>
-      <c r="V18">
+      <c r="AL18">
         <v>0.14000000000000001</v>
       </c>
-      <c r="W18" t="s">
+      <c r="AM18" t="s">
         <v>81</v>
       </c>
-      <c r="X18">
+      <c r="AN18">
         <v>0.03</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="BC18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -7041,20 +8468,20 @@
       <c r="F19">
         <v>30</v>
       </c>
-      <c r="V19">
+      <c r="AL19">
         <v>0.7</v>
       </c>
-      <c r="W19" t="s">
+      <c r="AM19" t="s">
         <v>81</v>
       </c>
-      <c r="X19">
+      <c r="AN19">
         <v>0.03</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="BC19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -7073,20 +8500,20 @@
       <c r="F20">
         <v>30</v>
       </c>
-      <c r="V20">
+      <c r="AL20">
         <v>0.31</v>
       </c>
-      <c r="W20" t="s">
+      <c r="AM20" t="s">
         <v>81</v>
       </c>
-      <c r="X20">
+      <c r="AN20">
         <v>0.04</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="BC20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -7105,20 +8532,20 @@
       <c r="F21">
         <v>30</v>
       </c>
-      <c r="V21">
+      <c r="AL21">
         <v>0.25</v>
       </c>
-      <c r="W21" t="s">
+      <c r="AM21" t="s">
         <v>81</v>
       </c>
-      <c r="X21">
+      <c r="AN21">
         <v>0.05</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="BC21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -7137,20 +8564,20 @@
       <c r="F22">
         <v>25</v>
       </c>
-      <c r="V22">
+      <c r="AL22">
         <v>0.34</v>
       </c>
-      <c r="W22" t="s">
+      <c r="AM22" t="s">
         <v>81</v>
       </c>
-      <c r="X22">
+      <c r="AN22">
         <v>0.05</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="BC22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -7169,20 +8596,20 @@
       <c r="F23">
         <v>25</v>
       </c>
-      <c r="V23">
+      <c r="AL23">
         <v>0.7</v>
       </c>
-      <c r="W23" t="s">
+      <c r="AM23" t="s">
         <v>81</v>
       </c>
-      <c r="X23">
+      <c r="AN23">
         <v>0.15</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="BC23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -7201,20 +8628,20 @@
       <c r="F24">
         <v>25</v>
       </c>
-      <c r="V24">
+      <c r="AL24">
         <v>1.62</v>
       </c>
-      <c r="W24" t="s">
+      <c r="AM24" t="s">
         <v>81</v>
       </c>
-      <c r="X24">
+      <c r="AN24">
         <v>0.3</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="BC24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -7233,20 +8660,20 @@
       <c r="F25">
         <v>25</v>
       </c>
-      <c r="V25">
+      <c r="AL25">
         <v>0.2</v>
       </c>
-      <c r="W25" t="s">
+      <c r="AM25" t="s">
         <v>81</v>
       </c>
-      <c r="X25">
+      <c r="AN25">
         <v>0.04</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="BC25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -7265,20 +8692,20 @@
       <c r="F26">
         <v>25</v>
       </c>
-      <c r="V26">
+      <c r="AL26">
         <v>0.05</v>
       </c>
-      <c r="W26" t="s">
+      <c r="AM26" t="s">
         <v>81</v>
       </c>
-      <c r="X26">
+      <c r="AN26">
         <v>0.01</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="BC26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -7297,20 +8724,20 @@
       <c r="F27">
         <v>25</v>
       </c>
-      <c r="V27">
+      <c r="AL27">
         <v>0.09</v>
       </c>
-      <c r="W27" t="s">
+      <c r="AM27" t="s">
         <v>81</v>
       </c>
-      <c r="X27">
+      <c r="AN27">
         <v>0.01</v>
       </c>
-      <c r="AM27" t="s">
+      <c r="BC27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -7329,20 +8756,20 @@
       <c r="F28">
         <v>25</v>
       </c>
-      <c r="V28">
+      <c r="AL28">
         <v>0.18</v>
       </c>
-      <c r="W28" t="s">
+      <c r="AM28" t="s">
         <v>81</v>
       </c>
-      <c r="X28">
+      <c r="AN28">
         <v>0.04</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="BC28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -7361,20 +8788,20 @@
       <c r="F29">
         <v>25</v>
       </c>
-      <c r="V29">
+      <c r="AL29">
         <v>0.76</v>
       </c>
-      <c r="W29" t="s">
+      <c r="AM29" t="s">
         <v>81</v>
       </c>
-      <c r="X29">
+      <c r="AN29">
         <v>0.13</v>
       </c>
-      <c r="AM29" t="s">
+      <c r="BC29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -7393,20 +8820,20 @@
       <c r="F30">
         <v>25</v>
       </c>
-      <c r="V30">
+      <c r="AL30">
         <v>0.42</v>
       </c>
-      <c r="W30" t="s">
+      <c r="AM30" t="s">
         <v>81</v>
       </c>
-      <c r="X30">
+      <c r="AN30">
         <v>0.04</v>
       </c>
-      <c r="AM30" t="s">
+      <c r="BC30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -7425,20 +8852,20 @@
       <c r="F31">
         <v>25</v>
       </c>
-      <c r="V31">
+      <c r="AL31">
         <v>0.08</v>
       </c>
-      <c r="W31" t="s">
+      <c r="AM31" t="s">
         <v>81</v>
       </c>
-      <c r="X31">
+      <c r="AN31">
         <v>0.04</v>
       </c>
-      <c r="AM31" t="s">
+      <c r="BC31" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -7457,20 +8884,20 @@
       <c r="F32">
         <v>25</v>
       </c>
-      <c r="V32">
+      <c r="AL32">
         <v>0.26</v>
       </c>
-      <c r="W32" t="s">
+      <c r="AM32" t="s">
         <v>81</v>
       </c>
-      <c r="X32">
+      <c r="AN32">
         <v>0.08</v>
       </c>
-      <c r="AM32" t="s">
+      <c r="BC32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -7486,33 +8913,33 @@
       <c r="E33">
         <v>4</v>
       </c>
-      <c r="N33">
+      <c r="AD33">
         <v>2.7E-4</v>
       </c>
-      <c r="O33" t="s">
+      <c r="AE33" t="s">
         <v>94</v>
       </c>
-      <c r="P33">
+      <c r="AF33">
         <f>0.00027*14.0067*1000</f>
         <v>3.781809</v>
       </c>
-      <c r="Q33">
+      <c r="AG33">
         <v>2.1900000000000001E-4</v>
       </c>
-      <c r="AA33">
+      <c r="AQ33">
         <v>1.27</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AR33" t="s">
         <v>91</v>
       </c>
-      <c r="AC33">
+      <c r="AS33">
         <v>0.159</v>
       </c>
-      <c r="AM33" t="s">
+      <c r="BC33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -7528,33 +8955,33 @@
       <c r="E34">
         <v>4</v>
       </c>
-      <c r="N34">
+      <c r="AD34">
         <v>9.1199999999999994E-5</v>
       </c>
-      <c r="O34" t="s">
+      <c r="AE34" t="s">
         <v>94</v>
       </c>
-      <c r="P34">
-        <f>N34*14.0067*1000</f>
+      <c r="AF34">
+        <f>AD34*14.0067*1000</f>
         <v>1.2774110400000001</v>
       </c>
-      <c r="Q34">
+      <c r="AG34">
         <v>2.9E-4</v>
       </c>
-      <c r="AA34">
+      <c r="AQ34">
         <v>0.80500000000000005</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AR34" t="s">
         <v>91</v>
       </c>
-      <c r="AC34">
+      <c r="AS34">
         <v>0.32400000000000001</v>
       </c>
-      <c r="AM34" t="s">
+      <c r="BC34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -7564,29 +8991,29 @@
       <c r="C35" t="s">
         <v>115</v>
       </c>
-      <c r="V35">
+      <c r="AL35">
         <v>0.14699999999999999</v>
       </c>
-      <c r="W35" t="s">
+      <c r="AM35" t="s">
         <v>91</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AP35" t="s">
         <v>117</v>
       </c>
-      <c r="AA35">
+      <c r="AQ35">
         <v>0.78500000000000003</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AR35" t="s">
         <v>91</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AT35" t="s">
         <v>118</v>
       </c>
-      <c r="AM35" t="s">
+      <c r="BC35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -7596,17 +9023,17 @@
       <c r="C36" t="s">
         <v>115</v>
       </c>
-      <c r="AG36">
+      <c r="AW36">
         <v>0.09</v>
       </c>
-      <c r="AH36" t="s">
+      <c r="AX36" t="s">
         <v>91</v>
       </c>
-      <c r="AM36" t="s">
+      <c r="BC36" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -7619,14 +9046,14 @@
       <c r="D37" t="s">
         <v>138</v>
       </c>
-      <c r="V37">
+      <c r="AL37">
         <v>0.02</v>
       </c>
-      <c r="W37" t="s">
+      <c r="AM37" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>135</v>
       </c>
@@ -7642,24 +9069,24 @@
       <c r="E38">
         <v>3</v>
       </c>
-      <c r="K38">
+      <c r="AA38">
         <v>0.72</v>
       </c>
-      <c r="L38" t="s">
+      <c r="AB38" t="s">
         <v>91</v>
       </c>
-      <c r="N38">
+      <c r="AD38">
         <v>1.73</v>
       </c>
-      <c r="O38" t="s">
+      <c r="AE38" t="s">
         <v>826</v>
       </c>
-      <c r="P38">
+      <c r="AF38">
         <f>0.00173*14.067*1000</f>
         <v>24.335909999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -7669,30 +9096,30 @@
       <c r="C39" t="s">
         <v>153</v>
       </c>
-      <c r="N39">
+      <c r="AD39">
         <v>0.5</v>
       </c>
-      <c r="O39" t="s">
+      <c r="AE39" t="s">
         <v>826</v>
       </c>
-      <c r="P39">
-        <f>N39/1000*14.0067*1000</f>
+      <c r="AF39">
+        <f>AD39/1000*14.0067*1000</f>
         <v>7.0033500000000002</v>
       </c>
-      <c r="R39" t="s">
+      <c r="AH39" t="s">
         <v>151</v>
       </c>
-      <c r="V39">
+      <c r="AL39">
         <v>0.09</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AP39" t="s">
         <v>150</v>
       </c>
-      <c r="AM39" t="s">
+      <c r="BC39" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>157</v>
       </c>
@@ -7702,20 +9129,20 @@
       <c r="C40" t="s">
         <v>159</v>
       </c>
-      <c r="AA40">
+      <c r="AQ40">
         <v>0.9</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AR40" t="s">
         <v>91</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AT40" t="s">
         <v>160</v>
       </c>
-      <c r="AM40" t="s">
+      <c r="BC40" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -7731,17 +9158,17 @@
       <c r="E41">
         <v>3</v>
       </c>
-      <c r="AA41">
+      <c r="AQ41">
         <v>2.2400000000000002</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AR41" t="s">
         <v>91</v>
       </c>
-      <c r="AM41" t="s">
+      <c r="BC41" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>169</v>
       </c>
@@ -7757,17 +9184,17 @@
       <c r="E42">
         <v>3</v>
       </c>
-      <c r="AA42">
+      <c r="AQ42">
         <v>0.08</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AR42" t="s">
         <v>91</v>
       </c>
-      <c r="AM42" t="s">
+      <c r="BC42" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>170</v>
       </c>
@@ -7783,17 +9210,17 @@
       <c r="E43">
         <v>3</v>
       </c>
-      <c r="AA43">
+      <c r="AQ43">
         <v>2.12</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AR43" t="s">
         <v>91</v>
       </c>
-      <c r="AM43" t="s">
+      <c r="BC43" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>171</v>
       </c>
@@ -7809,17 +9236,17 @@
       <c r="E44">
         <v>3</v>
       </c>
-      <c r="AA44">
+      <c r="AQ44">
         <v>1.37</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AR44" t="s">
         <v>91</v>
       </c>
-      <c r="AM44" t="s">
+      <c r="BC44" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>173</v>
       </c>
@@ -7829,14 +9256,14 @@
       <c r="C45" t="s">
         <v>115</v>
       </c>
-      <c r="AA45">
+      <c r="AQ45">
         <v>2.35</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AR45" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>187</v>
       </c>
@@ -7849,14 +9276,14 @@
       <c r="E46">
         <v>3</v>
       </c>
-      <c r="I46">
+      <c r="Y46">
         <v>2.63</v>
       </c>
-      <c r="J46" t="s">
+      <c r="Z46" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>187</v>
       </c>
@@ -7872,14 +9299,14 @@
       <c r="E47">
         <v>3</v>
       </c>
-      <c r="I47">
+      <c r="Y47">
         <v>3.03</v>
       </c>
-      <c r="J47" t="s">
+      <c r="Z47" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>197</v>
       </c>
@@ -7889,32 +9316,32 @@
       <c r="C48" t="s">
         <v>115</v>
       </c>
-      <c r="N48">
+      <c r="AD48">
         <v>0.4</v>
       </c>
-      <c r="O48" t="s">
+      <c r="AE48" t="s">
         <v>201</v>
       </c>
-      <c r="P48">
+      <c r="AF48">
         <v>0.4</v>
       </c>
-      <c r="AA48">
+      <c r="AQ48">
         <v>1</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AR48" t="s">
         <v>91</v>
       </c>
-      <c r="AG48">
+      <c r="AW48">
         <v>0.09</v>
       </c>
-      <c r="AH48" t="s">
+      <c r="AX48" t="s">
         <v>91</v>
       </c>
-      <c r="AJ48" t="s">
+      <c r="AZ48" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>212</v>
       </c>
@@ -7927,24 +9354,24 @@
       <c r="E49">
         <v>4</v>
       </c>
-      <c r="AA49">
+      <c r="AQ49">
         <v>0.51700000000000002</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AR49" t="s">
         <v>91</v>
       </c>
-      <c r="AC49">
-        <f xml:space="preserve"> 0.537-AA49</f>
+      <c r="AS49">
+        <f xml:space="preserve"> 0.537-AQ49</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="AE49" t="s">
+      <c r="AU49" t="s">
         <v>218</v>
       </c>
-      <c r="AM49" t="s">
+      <c r="BC49" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>214</v>
       </c>
@@ -7957,24 +9384,24 @@
       <c r="E50">
         <v>4</v>
       </c>
-      <c r="AA50">
+      <c r="AQ50">
         <v>0.42</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AR50" t="s">
         <v>91</v>
       </c>
-      <c r="AC50">
-        <f>0.4398-AA50</f>
+      <c r="AS50">
+        <f>0.4398-AQ50</f>
         <v>1.980000000000004E-2</v>
       </c>
-      <c r="AE50" t="s">
+      <c r="AU50" t="s">
         <v>219</v>
       </c>
-      <c r="AM50" t="s">
+      <c r="BC50" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>215</v>
       </c>
@@ -7987,24 +9414,24 @@
       <c r="E51">
         <v>4</v>
       </c>
-      <c r="AA51">
+      <c r="AQ51">
         <v>0.318</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AR51" t="s">
         <v>91</v>
       </c>
-      <c r="AC51">
-        <f>0.3346-AA51</f>
+      <c r="AS51">
+        <f>0.3346-AQ51</f>
         <v>1.6600000000000004E-2</v>
       </c>
-      <c r="AE51" t="s">
+      <c r="AU51" t="s">
         <v>220</v>
       </c>
-      <c r="AM51" t="s">
+      <c r="BC51" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>216</v>
       </c>
@@ -8017,24 +9444,24 @@
       <c r="E52">
         <v>4</v>
       </c>
-      <c r="AA52">
+      <c r="AQ52">
         <v>0.23400000000000001</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AR52" t="s">
         <v>91</v>
       </c>
-      <c r="AC52">
-        <f>0.242-AA52</f>
+      <c r="AS52">
+        <f>0.242-AQ52</f>
         <v>7.9999999999999793E-3</v>
       </c>
-      <c r="AE52" t="s">
+      <c r="AU52" t="s">
         <v>221</v>
       </c>
-      <c r="AM52" t="s">
+      <c r="BC52" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>216</v>
       </c>
@@ -8047,38 +9474,38 @@
       <c r="E53">
         <v>4</v>
       </c>
-      <c r="AA53">
+      <c r="AQ53">
         <v>0.16200000000000001</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AR53" t="s">
         <v>91</v>
       </c>
-      <c r="AC53">
-        <f>0.168-AA53</f>
+      <c r="AS53">
+        <f>0.168-AQ53</f>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="AE53" t="s">
+      <c r="AU53" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>232</v>
       </c>
       <c r="B54" t="s">
         <v>233</v>
       </c>
-      <c r="AA54">
+      <c r="AQ54">
         <v>3</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AR54" t="s">
         <v>91</v>
       </c>
-      <c r="AM54" t="s">
+      <c r="BC54" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>235</v>
       </c>
@@ -8092,30 +9519,30 @@
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>250</v>
       </c>
       <c r="B56" t="s">
         <v>251</v>
       </c>
-      <c r="V56">
+      <c r="AL56">
         <v>1.5E-3</v>
       </c>
-      <c r="W56" t="s">
+      <c r="AM56" t="s">
         <v>253</v>
       </c>
-      <c r="AA56">
+      <c r="AQ56">
         <v>3.1E-2</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AR56" t="s">
         <v>254</v>
       </c>
-      <c r="AM56" t="s">
+      <c r="BC56" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>284</v>
       </c>
@@ -8125,24 +9552,24 @@
       <c r="C57" t="s">
         <v>286</v>
       </c>
-      <c r="V57">
+      <c r="AL57">
         <v>0.3</v>
       </c>
-      <c r="W57" t="s">
+      <c r="AM57" t="s">
         <v>287</v>
       </c>
-      <c r="AA57">
+      <c r="AQ57">
         <f>AVERAGE(10,8,10)</f>
         <v>9.3333333333333339</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AR57" t="s">
         <v>287</v>
       </c>
-      <c r="AM57" t="s">
+      <c r="BC57" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>299</v>
       </c>
@@ -8158,14 +9585,14 @@
       <c r="F58">
         <v>25</v>
       </c>
-      <c r="AA58">
+      <c r="AQ58">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AR58" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>304</v>
       </c>
@@ -8175,23 +9602,23 @@
       <c r="C59" t="s">
         <v>286</v>
       </c>
-      <c r="N59">
+      <c r="AD59">
         <v>2E-3</v>
       </c>
-      <c r="O59" t="s">
+      <c r="AE59" t="s">
         <v>306</v>
       </c>
-      <c r="P59">
+      <c r="AF59">
         <v>2E-3</v>
       </c>
-      <c r="AA59">
+      <c r="AQ59">
         <v>2.95</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AR59" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>312</v>
       </c>
@@ -8204,17 +9631,17 @@
       <c r="D60" t="s">
         <v>192</v>
       </c>
-      <c r="AA60">
+      <c r="AQ60">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AR60" t="s">
         <v>314</v>
       </c>
-      <c r="AM60" t="s">
+      <c r="BC60" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>322</v>
       </c>
@@ -8230,20 +9657,20 @@
       <c r="E61">
         <v>3</v>
       </c>
-      <c r="G61">
+      <c r="W61">
         <v>10</v>
       </c>
-      <c r="H61" t="s">
+      <c r="X61" t="s">
         <v>326</v>
       </c>
-      <c r="AA61">
+      <c r="AQ61">
         <v>1.4E-2</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AR61" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>327</v>
       </c>
@@ -8259,20 +9686,20 @@
       <c r="E62">
         <v>3</v>
       </c>
-      <c r="G62">
+      <c r="W62">
         <v>51</v>
       </c>
-      <c r="H62" t="s">
+      <c r="X62" t="s">
         <v>326</v>
       </c>
-      <c r="AA62">
+      <c r="AQ62">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AR62" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>328</v>
       </c>
@@ -8288,20 +9715,20 @@
       <c r="E63">
         <v>3</v>
       </c>
-      <c r="G63">
+      <c r="W63">
         <v>102</v>
       </c>
-      <c r="H63" t="s">
+      <c r="X63" t="s">
         <v>326</v>
       </c>
-      <c r="AA63">
+      <c r="AQ63">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AR63" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>329</v>
       </c>
@@ -8317,20 +9744,20 @@
       <c r="E64">
         <v>3</v>
       </c>
-      <c r="G64">
+      <c r="W64">
         <v>204</v>
       </c>
-      <c r="H64" t="s">
+      <c r="X64" t="s">
         <v>326</v>
       </c>
-      <c r="AA64">
+      <c r="AQ64">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AR64" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>330</v>
       </c>
@@ -8346,20 +9773,20 @@
       <c r="E65">
         <v>3</v>
       </c>
-      <c r="G65">
+      <c r="W65">
         <v>510</v>
       </c>
-      <c r="H65" t="s">
+      <c r="X65" t="s">
         <v>326</v>
       </c>
-      <c r="AA65">
+      <c r="AQ65">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AR65" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>331</v>
       </c>
@@ -8375,20 +9802,20 @@
       <c r="E66">
         <v>3</v>
       </c>
-      <c r="G66">
+      <c r="W66">
         <v>1020</v>
       </c>
-      <c r="H66" t="s">
+      <c r="X66" t="s">
         <v>326</v>
       </c>
-      <c r="AA66">
+      <c r="AQ66">
         <v>2.4E-2</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AR66" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>332</v>
       </c>
@@ -8404,20 +9831,20 @@
       <c r="F67">
         <v>22</v>
       </c>
-      <c r="AA67">
+      <c r="AQ67">
         <v>0.26</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AR67" t="s">
         <v>308</v>
       </c>
-      <c r="AE67" t="s">
+      <c r="AU67" t="s">
         <v>334</v>
       </c>
-      <c r="AM67" t="s">
+      <c r="BC67" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>335</v>
       </c>
@@ -8433,20 +9860,20 @@
       <c r="F68">
         <v>22</v>
       </c>
-      <c r="AA68">
+      <c r="AQ68">
         <v>2.4300000000000002</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AR68" t="s">
         <v>308</v>
       </c>
-      <c r="AE68">
+      <c r="AU68">
         <v>2</v>
       </c>
-      <c r="AM68" t="s">
+      <c r="BC68" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>336</v>
       </c>
@@ -8462,20 +9889,20 @@
       <c r="F69">
         <v>22</v>
       </c>
-      <c r="AA69">
+      <c r="AQ69">
         <v>2.4</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AR69" t="s">
         <v>308</v>
       </c>
-      <c r="AE69">
+      <c r="AU69">
         <v>3</v>
       </c>
-      <c r="AM69" t="s">
+      <c r="BC69" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>337</v>
       </c>
@@ -8491,20 +9918,20 @@
       <c r="F70">
         <v>22</v>
       </c>
-      <c r="AA70">
+      <c r="AQ70">
         <v>1.59</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AR70" t="s">
         <v>308</v>
       </c>
-      <c r="AE70" t="s">
+      <c r="AU70" t="s">
         <v>334</v>
       </c>
-      <c r="AM70" t="s">
+      <c r="BC70" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>338</v>
       </c>
@@ -8520,20 +9947,20 @@
       <c r="F71">
         <v>22</v>
       </c>
-      <c r="AA71">
+      <c r="AQ71">
         <v>1.64</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AR71" t="s">
         <v>308</v>
       </c>
-      <c r="AE71">
+      <c r="AU71">
         <v>2</v>
       </c>
-      <c r="AM71" t="s">
+      <c r="BC71" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>339</v>
       </c>
@@ -8549,20 +9976,20 @@
       <c r="F72">
         <v>22</v>
       </c>
-      <c r="AA72">
+      <c r="AQ72">
         <v>2.74</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AR72" t="s">
         <v>308</v>
       </c>
-      <c r="AE72">
+      <c r="AU72">
         <v>3</v>
       </c>
-      <c r="AM72" t="s">
+      <c r="BC72" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>340</v>
       </c>
@@ -8578,20 +10005,20 @@
       <c r="F73">
         <v>22</v>
       </c>
-      <c r="AA73">
+      <c r="AQ73">
         <v>0.87</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AR73" t="s">
         <v>308</v>
       </c>
-      <c r="AE73" t="s">
+      <c r="AU73" t="s">
         <v>334</v>
       </c>
-      <c r="AM73" t="s">
+      <c r="BC73" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>341</v>
       </c>
@@ -8607,20 +10034,20 @@
       <c r="F74">
         <v>22</v>
       </c>
-      <c r="AA74">
+      <c r="AQ74">
         <v>1.58</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AR74" t="s">
         <v>308</v>
       </c>
-      <c r="AE74">
+      <c r="AU74">
         <v>2</v>
       </c>
-      <c r="AM74" t="s">
+      <c r="BC74" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>342</v>
       </c>
@@ -8636,20 +10063,20 @@
       <c r="F75">
         <v>22</v>
       </c>
-      <c r="AA75">
+      <c r="AQ75">
         <v>1.25</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AR75" t="s">
         <v>308</v>
       </c>
-      <c r="AE75">
+      <c r="AU75">
         <v>3</v>
       </c>
-      <c r="AM75" t="s">
+      <c r="BC75" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>343</v>
       </c>
@@ -8665,20 +10092,20 @@
       <c r="F76">
         <v>22</v>
       </c>
-      <c r="AA76">
+      <c r="AQ76">
         <v>2.21</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AR76" t="s">
         <v>308</v>
       </c>
-      <c r="AE76" t="s">
+      <c r="AU76" t="s">
         <v>334</v>
       </c>
-      <c r="AM76" t="s">
+      <c r="BC76" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>344</v>
       </c>
@@ -8694,20 +10121,20 @@
       <c r="F77">
         <v>22</v>
       </c>
-      <c r="AA77">
+      <c r="AQ77">
         <v>2.37</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AR77" t="s">
         <v>308</v>
       </c>
-      <c r="AE77">
+      <c r="AU77">
         <v>2</v>
       </c>
-      <c r="AM77" t="s">
+      <c r="BC77" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>345</v>
       </c>
@@ -8723,20 +10150,20 @@
       <c r="F78">
         <v>22</v>
       </c>
-      <c r="AA78">
+      <c r="AQ78">
         <v>1.72</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AR78" t="s">
         <v>308</v>
       </c>
-      <c r="AE78">
+      <c r="AU78">
         <v>3</v>
       </c>
-      <c r="AM78" t="s">
+      <c r="BC78" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>360</v>
       </c>
@@ -8752,17 +10179,17 @@
       <c r="E79">
         <v>3</v>
       </c>
-      <c r="AA79">
+      <c r="AQ79">
         <v>10.4</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AR79" t="s">
         <v>363</v>
       </c>
-      <c r="AC79">
+      <c r="AS79">
         <v>0.2</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>374</v>
       </c>
@@ -8781,20 +10208,20 @@
       <c r="F80">
         <v>20</v>
       </c>
-      <c r="AA80">
+      <c r="AQ80">
         <v>0.8</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AR80" t="s">
         <v>308</v>
       </c>
-      <c r="AC80">
+      <c r="AS80">
         <v>0.12</v>
       </c>
-      <c r="AE80">
+      <c r="AU80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>374</v>
       </c>
@@ -8813,20 +10240,20 @@
       <c r="F81">
         <v>20</v>
       </c>
-      <c r="AA81">
+      <c r="AQ81">
         <v>0.7</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AR81" t="s">
         <v>308</v>
       </c>
-      <c r="AC81">
+      <c r="AS81">
         <v>0.11</v>
       </c>
-      <c r="AE81">
+      <c r="AU81">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>382</v>
       </c>
@@ -8845,14 +10272,14 @@
       <c r="F82">
         <v>25</v>
       </c>
-      <c r="AA82">
+      <c r="AQ82">
         <v>0.5655</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AR82" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>399</v>
       </c>
@@ -8871,20 +10298,20 @@
       <c r="F83">
         <v>25</v>
       </c>
-      <c r="AA83">
+      <c r="AQ83">
         <v>0.13300000000000001</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AR83" t="s">
         <v>401</v>
       </c>
-      <c r="AC83">
+      <c r="AS83">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AM83" t="s">
+      <c r="BC83" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>399</v>
       </c>
@@ -8903,20 +10330,20 @@
       <c r="F84">
         <v>25</v>
       </c>
-      <c r="AA84">
+      <c r="AQ84">
         <v>0.14399999999999999</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AR84" t="s">
         <v>401</v>
       </c>
-      <c r="AC84">
+      <c r="AS84">
         <v>1.2E-2</v>
       </c>
-      <c r="AM84" t="s">
+      <c r="BC84" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>399</v>
       </c>
@@ -8935,20 +10362,20 @@
       <c r="F85">
         <v>25</v>
       </c>
-      <c r="AA85">
+      <c r="AQ85">
         <v>0.104</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AR85" t="s">
         <v>401</v>
       </c>
-      <c r="AC85">
+      <c r="AS85">
         <v>1.2E-2</v>
       </c>
-      <c r="AM85" t="s">
+      <c r="BC85" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>399</v>
       </c>
@@ -8967,20 +10394,20 @@
       <c r="F86">
         <v>25</v>
       </c>
-      <c r="AA86">
+      <c r="AQ86">
         <v>0.10299999999999999</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AR86" t="s">
         <v>401</v>
       </c>
-      <c r="AC86">
+      <c r="AS86">
         <v>1.2E-2</v>
       </c>
-      <c r="AM86" t="s">
+      <c r="BC86" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>399</v>
       </c>
@@ -8999,20 +10426,20 @@
       <c r="F87">
         <v>25</v>
       </c>
-      <c r="AA87">
+      <c r="AQ87">
         <v>0.13</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AR87" t="s">
         <v>401</v>
       </c>
-      <c r="AC87">
+      <c r="AS87">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AM87" t="s">
+      <c r="BC87" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>399</v>
       </c>
@@ -9031,20 +10458,20 @@
       <c r="F88">
         <v>25</v>
       </c>
-      <c r="AA88">
+      <c r="AQ88">
         <v>6.2E-2</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AR88" t="s">
         <v>401</v>
       </c>
-      <c r="AC88">
+      <c r="AS88">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="AM88" t="s">
+      <c r="BC88" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>399</v>
       </c>
@@ -9063,20 +10490,20 @@
       <c r="F89">
         <v>25</v>
       </c>
-      <c r="AA89">
+      <c r="AQ89">
         <v>0.21</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AR89" t="s">
         <v>401</v>
       </c>
-      <c r="AC89">
+      <c r="AS89">
         <v>0.191</v>
       </c>
-      <c r="AM89" t="s">
+      <c r="BC89" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>399</v>
       </c>
@@ -9095,20 +10522,20 @@
       <c r="F90">
         <v>25</v>
       </c>
-      <c r="AA90">
+      <c r="AQ90">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AR90" t="s">
         <v>401</v>
       </c>
-      <c r="AC90">
+      <c r="AS90">
         <v>0.104</v>
       </c>
-      <c r="AM90" t="s">
+      <c r="BC90" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>399</v>
       </c>
@@ -9127,20 +10554,20 @@
       <c r="F91">
         <v>25</v>
       </c>
-      <c r="AA91">
+      <c r="AQ91">
         <v>0.21</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AR91" t="s">
         <v>401</v>
       </c>
-      <c r="AC91">
+      <c r="AS91">
         <v>0.20699999999999999</v>
       </c>
-      <c r="AM91" t="s">
+      <c r="BC91" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>399</v>
       </c>
@@ -9159,20 +10586,20 @@
       <c r="F92">
         <v>25</v>
       </c>
-      <c r="AA92">
+      <c r="AQ92">
         <v>0.84</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AR92" t="s">
         <v>401</v>
       </c>
-      <c r="AC92">
+      <c r="AS92">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="AM92" t="s">
+      <c r="BC92" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>399</v>
       </c>
@@ -9191,20 +10618,20 @@
       <c r="F93">
         <v>25</v>
       </c>
-      <c r="AA93">
+      <c r="AQ93">
         <v>0.24299999999999999</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AR93" t="s">
         <v>401</v>
       </c>
-      <c r="AC93">
+      <c r="AS93">
         <v>0.255</v>
       </c>
-      <c r="AM93" t="s">
+      <c r="BC93" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>399</v>
       </c>
@@ -9223,20 +10650,20 @@
       <c r="F94">
         <v>25</v>
       </c>
-      <c r="AA94">
+      <c r="AQ94">
         <v>0.7</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AR94" t="s">
         <v>401</v>
       </c>
-      <c r="AC94">
+      <c r="AS94">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="AM94" t="s">
+      <c r="BC94" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>399</v>
       </c>
@@ -9255,20 +10682,20 @@
       <c r="F95">
         <v>25</v>
       </c>
-      <c r="AA95">
+      <c r="AQ95">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AR95" t="s">
         <v>401</v>
       </c>
-      <c r="AC95">
+      <c r="AS95">
         <v>0.13300000000000001</v>
       </c>
-      <c r="AM95" t="s">
+      <c r="BC95" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>399</v>
       </c>
@@ -9287,20 +10714,20 @@
       <c r="F96">
         <v>25</v>
       </c>
-      <c r="AA96">
+      <c r="AQ96">
         <v>0.15</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AR96" t="s">
         <v>401</v>
       </c>
-      <c r="AC96">
+      <c r="AS96">
         <v>0.15</v>
       </c>
-      <c r="AM96" t="s">
+      <c r="BC96" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>403</v>
       </c>
@@ -9313,17 +10740,17 @@
       <c r="D97" t="s">
         <v>385</v>
       </c>
-      <c r="AA97">
+      <c r="AQ97">
         <v>0.03</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AR97" t="s">
         <v>314</v>
       </c>
-      <c r="AC97">
+      <c r="AS97">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>403</v>
       </c>
@@ -9336,17 +10763,17 @@
       <c r="D98" t="s">
         <v>385</v>
       </c>
-      <c r="AA98">
+      <c r="AQ98">
         <v>4.3000000000000002E-5</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AR98" t="s">
         <v>314</v>
       </c>
-      <c r="AC98">
+      <c r="AS98">
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>411</v>
       </c>
@@ -9365,18 +10792,18 @@
       <c r="F99">
         <v>18</v>
       </c>
-      <c r="AA99">
+      <c r="AQ99">
         <v>0.44</v>
       </c>
-      <c r="AB99" t="s">
+      <c r="AR99" t="s">
         <v>308</v>
       </c>
-      <c r="AC99">
+      <c r="AS99">
         <f>0.01 * SQRT(6)</f>
         <v>2.4494897427831779E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>411</v>
       </c>
@@ -9395,18 +10822,18 @@
       <c r="F100">
         <v>18</v>
       </c>
-      <c r="AA100">
+      <c r="AQ100">
         <v>0.43</v>
       </c>
-      <c r="AB100" t="s">
+      <c r="AR100" t="s">
         <v>308</v>
       </c>
-      <c r="AC100">
+      <c r="AS100">
         <f>0.43*SQRT(6)</f>
         <v>1.0532805893967665</v>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>423</v>
       </c>
@@ -9416,20 +10843,20 @@
       <c r="C101" t="s">
         <v>425</v>
       </c>
-      <c r="V101">
+      <c r="AL101">
         <v>0.185</v>
       </c>
-      <c r="W101" t="s">
+      <c r="AM101" t="s">
         <v>308</v>
       </c>
-      <c r="AA101">
+      <c r="AQ101">
         <v>1.27</v>
       </c>
-      <c r="AB101" t="s">
+      <c r="AR101" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>429</v>
       </c>
@@ -9445,17 +10872,17 @@
       <c r="E102">
         <v>3</v>
       </c>
-      <c r="AA102">
+      <c r="AQ102">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AB102" t="s">
+      <c r="AR102" t="s">
         <v>308</v>
       </c>
-      <c r="AM102" t="s">
+      <c r="BC102" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>436</v>
       </c>
@@ -9471,17 +10898,17 @@
       <c r="E103">
         <v>3</v>
       </c>
-      <c r="AA103">
+      <c r="AQ103">
         <v>2.1</v>
       </c>
-      <c r="AB103" t="s">
+      <c r="AR103" t="s">
         <v>308</v>
       </c>
-      <c r="AM103" t="s">
+      <c r="BC103" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>437</v>
       </c>
@@ -9497,17 +10924,17 @@
       <c r="E104">
         <v>3</v>
       </c>
-      <c r="AA104">
+      <c r="AQ104">
         <v>1.9</v>
       </c>
-      <c r="AB104" t="s">
+      <c r="AR104" t="s">
         <v>308</v>
       </c>
-      <c r="AM104" t="s">
+      <c r="BC104" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>447</v>
       </c>
@@ -9523,17 +10950,17 @@
       <c r="E105">
         <v>3</v>
       </c>
-      <c r="AA105">
+      <c r="AQ105">
         <v>1.81</v>
       </c>
-      <c r="AB105" t="s">
+      <c r="AR105" t="s">
         <v>308</v>
       </c>
-      <c r="AM105" t="s">
+      <c r="BC105" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>447</v>
       </c>
@@ -9549,17 +10976,17 @@
       <c r="E106">
         <v>3</v>
       </c>
-      <c r="AA106">
+      <c r="AQ106">
         <v>1.75</v>
       </c>
-      <c r="AB106" t="s">
+      <c r="AR106" t="s">
         <v>308</v>
       </c>
-      <c r="AM106" t="s">
+      <c r="BC106" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>447</v>
       </c>
@@ -9575,17 +11002,17 @@
       <c r="E107">
         <v>3</v>
       </c>
-      <c r="AA107">
+      <c r="AQ107">
         <v>1.7</v>
       </c>
-      <c r="AB107" t="s">
+      <c r="AR107" t="s">
         <v>308</v>
       </c>
-      <c r="AM107" t="s">
+      <c r="BC107" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>447</v>
       </c>
@@ -9601,17 +11028,17 @@
       <c r="E108">
         <v>3</v>
       </c>
-      <c r="AA108">
+      <c r="AQ108">
         <v>1.7</v>
       </c>
-      <c r="AB108" t="s">
+      <c r="AR108" t="s">
         <v>308</v>
       </c>
-      <c r="AM108" t="s">
+      <c r="BC108" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>452</v>
       </c>
@@ -9630,18 +11057,18 @@
       <c r="F109">
         <v>30</v>
       </c>
-      <c r="AA109">
+      <c r="AQ109">
         <f>AVERAGE(0.1153,0.11)</f>
         <v>0.11265</v>
       </c>
-      <c r="AB109" t="s">
+      <c r="AR109" t="s">
         <v>314</v>
       </c>
-      <c r="AM109" t="s">
+      <c r="BC109" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>452</v>
       </c>
@@ -9660,17 +11087,17 @@
       <c r="F110">
         <v>30</v>
       </c>
-      <c r="AA110">
+      <c r="AQ110">
         <v>0.05</v>
       </c>
-      <c r="AB110" t="s">
+      <c r="AR110" t="s">
         <v>314</v>
       </c>
-      <c r="AM110" t="s">
+      <c r="BC110" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>458</v>
       </c>
@@ -9686,20 +11113,20 @@
       <c r="E111">
         <v>9</v>
       </c>
-      <c r="AA111">
+      <c r="AQ111">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="AB111" t="s">
+      <c r="AR111" t="s">
         <v>308</v>
       </c>
-      <c r="AE111">
+      <c r="AU111">
         <v>4</v>
       </c>
-      <c r="AM111" t="s">
+      <c r="BC111" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>461</v>
       </c>
@@ -9715,24 +11142,24 @@
       <c r="E112">
         <v>9</v>
       </c>
-      <c r="AA112">
+      <c r="AQ112">
         <v>0.1183</v>
       </c>
-      <c r="AB112" t="s">
+      <c r="AR112" t="s">
         <v>308</v>
       </c>
-      <c r="AC112">
-        <f>0.1213-AA112</f>
+      <c r="AS112">
+        <f>0.1213-AQ112</f>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="AE112">
+      <c r="AU112">
         <v>7</v>
       </c>
-      <c r="AM112" t="s">
+      <c r="BC112" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>462</v>
       </c>
@@ -9748,24 +11175,24 @@
       <c r="E113">
         <v>9</v>
       </c>
-      <c r="AA113">
+      <c r="AQ113">
         <v>0.16900000000000001</v>
       </c>
-      <c r="AB113" t="s">
+      <c r="AR113" t="s">
         <v>308</v>
       </c>
-      <c r="AC113">
-        <f>0.1749-AA113</f>
+      <c r="AS113">
+        <f>0.1749-AQ113</f>
         <v>5.8999999999999886E-3</v>
       </c>
-      <c r="AE113">
+      <c r="AU113">
         <v>8</v>
       </c>
-      <c r="AM113" t="s">
+      <c r="BC113" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>463</v>
       </c>
@@ -9781,24 +11208,24 @@
       <c r="E114">
         <v>9</v>
       </c>
-      <c r="AA114">
+      <c r="AQ114">
         <v>0.12720000000000001</v>
       </c>
-      <c r="AB114" t="s">
+      <c r="AR114" t="s">
         <v>308</v>
       </c>
-      <c r="AC114">
-        <f>0.133-AA114</f>
+      <c r="AS114">
+        <f>0.133-AQ114</f>
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="AE114">
+      <c r="AU114">
         <v>11</v>
       </c>
-      <c r="AM114" t="s">
+      <c r="BC114" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>464</v>
       </c>
@@ -9814,24 +11241,24 @@
       <c r="E115">
         <v>9</v>
       </c>
-      <c r="AA115">
+      <c r="AQ115">
         <v>0.158</v>
       </c>
-      <c r="AB115" t="s">
+      <c r="AR115" t="s">
         <v>308</v>
       </c>
-      <c r="AC115">
-        <f>0.1639-AA115</f>
+      <c r="AS115">
+        <f>0.1639-AQ115</f>
         <v>5.8999999999999886E-3</v>
       </c>
-      <c r="AE115">
+      <c r="AU115">
         <v>13</v>
       </c>
-      <c r="AM115" t="s">
+      <c r="BC115" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>465</v>
       </c>
@@ -9847,20 +11274,20 @@
       <c r="E116">
         <v>9</v>
       </c>
-      <c r="AA116">
+      <c r="AQ116">
         <v>6.6100000000000006E-2</v>
       </c>
-      <c r="AB116" t="s">
+      <c r="AR116" t="s">
         <v>308</v>
       </c>
-      <c r="AE116">
+      <c r="AU116">
         <v>18</v>
       </c>
-      <c r="AM116" t="s">
+      <c r="BC116" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>484</v>
       </c>
@@ -9876,14 +11303,14 @@
       <c r="F117">
         <v>20</v>
       </c>
-      <c r="AA117">
+      <c r="AQ117">
         <v>1.68</v>
       </c>
-      <c r="AB117" t="s">
+      <c r="AR117" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>495</v>
       </c>
@@ -9899,17 +11326,17 @@
       <c r="E118">
         <v>3</v>
       </c>
-      <c r="AA118">
+      <c r="AQ118">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AB118" t="s">
+      <c r="AR118" t="s">
         <v>314</v>
       </c>
-      <c r="AC118">
+      <c r="AS118">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>497</v>
       </c>
@@ -9925,20 +11352,20 @@
       <c r="E119">
         <v>3</v>
       </c>
-      <c r="AA119">
+      <c r="AQ119">
         <v>0.54</v>
       </c>
-      <c r="AB119" t="s">
+      <c r="AR119" t="s">
         <v>308</v>
       </c>
-      <c r="AF119" t="s">
+      <c r="AV119" t="s">
         <v>504</v>
       </c>
-      <c r="AM119" t="s">
+      <c r="BC119" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>497</v>
       </c>
@@ -9954,20 +11381,20 @@
       <c r="E120">
         <v>3</v>
       </c>
-      <c r="AA120">
+      <c r="AQ120">
         <v>0.82</v>
       </c>
-      <c r="AB120" t="s">
+      <c r="AR120" t="s">
         <v>308</v>
       </c>
-      <c r="AF120" t="s">
+      <c r="AV120" t="s">
         <v>504</v>
       </c>
-      <c r="AM120" t="s">
+      <c r="BC120" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>497</v>
       </c>
@@ -9983,20 +11410,20 @@
       <c r="E121">
         <v>3</v>
       </c>
-      <c r="AA121">
+      <c r="AQ121">
         <v>0.75</v>
       </c>
-      <c r="AB121" t="s">
+      <c r="AR121" t="s">
         <v>308</v>
       </c>
-      <c r="AF121" t="s">
+      <c r="AV121" t="s">
         <v>504</v>
       </c>
-      <c r="AM121" t="s">
+      <c r="BC121" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>505</v>
       </c>
@@ -10012,14 +11439,14 @@
       <c r="F122">
         <v>22</v>
       </c>
-      <c r="AA122">
+      <c r="AQ122">
         <v>0.34689999999999999</v>
       </c>
-      <c r="AB122" t="s">
+      <c r="AR122" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>509</v>
       </c>
@@ -10035,24 +11462,24 @@
       <c r="E123">
         <v>4</v>
       </c>
-      <c r="G123">
+      <c r="W123">
         <v>1</v>
       </c>
-      <c r="H123" t="s">
+      <c r="X123" t="s">
         <v>511</v>
       </c>
-      <c r="AA123">
+      <c r="AQ123">
         <v>1.73</v>
       </c>
-      <c r="AB123" t="s">
+      <c r="AR123" t="s">
         <v>308</v>
       </c>
-      <c r="AC123">
-        <f>(1.78-AA123)/SQRT(4)</f>
+      <c r="AS123">
+        <f>(1.78-AQ123)/SQRT(4)</f>
         <v>2.5000000000000022E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>513</v>
       </c>
@@ -10068,24 +11495,24 @@
       <c r="E124">
         <v>4</v>
       </c>
-      <c r="G124">
+      <c r="W124">
         <v>4</v>
       </c>
-      <c r="H124" t="s">
+      <c r="X124" t="s">
         <v>511</v>
       </c>
-      <c r="AA124">
+      <c r="AQ124">
         <v>1.6</v>
       </c>
-      <c r="AB124" t="s">
+      <c r="AR124" t="s">
         <v>308</v>
       </c>
-      <c r="AC124">
-        <f>(1.71-AA124)/SQRT(4)</f>
+      <c r="AS124">
+        <f>(1.71-AQ124)/SQRT(4)</f>
         <v>5.4999999999999938E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>514</v>
       </c>
@@ -10101,24 +11528,24 @@
       <c r="E125">
         <v>4</v>
       </c>
-      <c r="G125">
+      <c r="W125">
         <v>80</v>
       </c>
-      <c r="H125" t="s">
+      <c r="X125" t="s">
         <v>511</v>
       </c>
-      <c r="AA125">
+      <c r="AQ125">
         <v>2</v>
       </c>
-      <c r="AB125" t="s">
+      <c r="AR125" t="s">
         <v>512</v>
       </c>
-      <c r="AC125">
-        <f>(2.04-AA125)/SQRT(4)</f>
+      <c r="AS125">
+        <f>(2.04-AQ125)/SQRT(4)</f>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>522</v>
       </c>
@@ -10134,17 +11561,17 @@
       <c r="F126">
         <v>20</v>
       </c>
-      <c r="N126">
+      <c r="AD126">
         <v>31.5</v>
       </c>
-      <c r="O126" t="s">
+      <c r="AE126" t="s">
         <v>524</v>
       </c>
-      <c r="P126">
+      <c r="AF126">
         <v>31.5</v>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>527</v>
       </c>
@@ -10160,20 +11587,20 @@
       <c r="F127">
         <v>20</v>
       </c>
-      <c r="G127">
+      <c r="W127">
         <v>13</v>
       </c>
-      <c r="H127" t="s">
+      <c r="X127" t="s">
         <v>525</v>
       </c>
-      <c r="S127">
+      <c r="AI127">
         <v>0.56000000000000005</v>
       </c>
-      <c r="T127" t="s">
+      <c r="AJ127" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>528</v>
       </c>
@@ -10189,20 +11616,20 @@
       <c r="F128">
         <v>20</v>
       </c>
-      <c r="G128">
+      <c r="W128">
         <v>21</v>
       </c>
-      <c r="H128" t="s">
+      <c r="X128" t="s">
         <v>525</v>
       </c>
-      <c r="S128">
+      <c r="AI128">
         <v>0.43</v>
       </c>
-      <c r="T128" t="s">
+      <c r="AJ128" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>529</v>
       </c>
@@ -10218,20 +11645,20 @@
       <c r="F129">
         <v>20</v>
       </c>
-      <c r="G129">
+      <c r="W129">
         <v>43</v>
       </c>
-      <c r="H129" t="s">
+      <c r="X129" t="s">
         <v>525</v>
       </c>
-      <c r="S129">
+      <c r="AI129">
         <v>0.78</v>
       </c>
-      <c r="T129" t="s">
+      <c r="AJ129" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>530</v>
       </c>
@@ -10247,20 +11674,20 @@
       <c r="F130">
         <v>20</v>
       </c>
-      <c r="G130">
+      <c r="W130">
         <v>59</v>
       </c>
-      <c r="H130" t="s">
+      <c r="X130" t="s">
         <v>525</v>
       </c>
-      <c r="S130">
+      <c r="AI130">
         <v>0.7</v>
       </c>
-      <c r="T130" t="s">
+      <c r="AJ130" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>531</v>
       </c>
@@ -10276,20 +11703,20 @@
       <c r="F131">
         <v>20</v>
       </c>
-      <c r="G131">
+      <c r="W131">
         <v>75</v>
       </c>
-      <c r="H131" t="s">
+      <c r="X131" t="s">
         <v>525</v>
       </c>
-      <c r="S131">
+      <c r="AI131">
         <v>0.77</v>
       </c>
-      <c r="T131" t="s">
+      <c r="AJ131" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>532</v>
       </c>
@@ -10305,20 +11732,20 @@
       <c r="F132">
         <v>20</v>
       </c>
-      <c r="G132">
+      <c r="W132">
         <v>93</v>
       </c>
-      <c r="H132" t="s">
+      <c r="X132" t="s">
         <v>525</v>
       </c>
-      <c r="S132">
+      <c r="AI132">
         <v>0.94</v>
       </c>
-      <c r="T132" t="s">
+      <c r="AJ132" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>533</v>
       </c>
@@ -10334,20 +11761,20 @@
       <c r="F133">
         <v>20</v>
       </c>
-      <c r="G133">
+      <c r="W133">
         <v>130</v>
       </c>
-      <c r="H133" t="s">
+      <c r="X133" t="s">
         <v>525</v>
       </c>
-      <c r="S133">
+      <c r="AI133">
         <v>0.91</v>
       </c>
-      <c r="T133" t="s">
+      <c r="AJ133" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>534</v>
       </c>
@@ -10363,20 +11790,20 @@
       <c r="F134">
         <v>20</v>
       </c>
-      <c r="G134">
+      <c r="W134">
         <v>149</v>
       </c>
-      <c r="H134" t="s">
+      <c r="X134" t="s">
         <v>525</v>
       </c>
-      <c r="S134">
+      <c r="AI134">
         <v>1.17</v>
       </c>
-      <c r="T134" t="s">
+      <c r="AJ134" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>535</v>
       </c>
@@ -10392,20 +11819,20 @@
       <c r="F135">
         <v>20</v>
       </c>
-      <c r="G135">
+      <c r="W135">
         <v>193</v>
       </c>
-      <c r="H135" t="s">
+      <c r="X135" t="s">
         <v>525</v>
       </c>
-      <c r="S135">
+      <c r="AI135">
         <v>1.1499999999999999</v>
       </c>
-      <c r="T135" t="s">
+      <c r="AJ135" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>536</v>
       </c>
@@ -10421,20 +11848,20 @@
       <c r="F136">
         <v>20</v>
       </c>
-      <c r="G136">
+      <c r="W136">
         <v>281</v>
       </c>
-      <c r="H136" t="s">
+      <c r="X136" t="s">
         <v>525</v>
       </c>
-      <c r="S136">
+      <c r="AI136">
         <v>1.9</v>
       </c>
-      <c r="T136" t="s">
+      <c r="AJ136" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>537</v>
       </c>
@@ -10450,20 +11877,20 @@
       <c r="F137">
         <v>20</v>
       </c>
-      <c r="G137">
+      <c r="W137">
         <v>316</v>
       </c>
-      <c r="H137" t="s">
+      <c r="X137" t="s">
         <v>525</v>
       </c>
-      <c r="S137">
+      <c r="AI137">
         <v>2.15</v>
       </c>
-      <c r="T137" t="s">
+      <c r="AJ137" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>538</v>
       </c>
@@ -10479,20 +11906,20 @@
       <c r="F138">
         <v>20</v>
       </c>
-      <c r="G138">
+      <c r="W138">
         <v>387</v>
       </c>
-      <c r="H138" t="s">
+      <c r="X138" t="s">
         <v>525</v>
       </c>
-      <c r="S138">
+      <c r="AI138">
         <v>2.86</v>
       </c>
-      <c r="T138" t="s">
+      <c r="AJ138" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>539</v>
       </c>
@@ -10508,20 +11935,20 @@
       <c r="F139">
         <v>20</v>
       </c>
-      <c r="G139">
+      <c r="W139">
         <v>409</v>
       </c>
-      <c r="H139" t="s">
+      <c r="X139" t="s">
         <v>525</v>
       </c>
-      <c r="S139">
+      <c r="AI139">
         <v>3.04</v>
       </c>
-      <c r="T139" t="s">
+      <c r="AJ139" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>551</v>
       </c>
@@ -10531,14 +11958,14 @@
       <c r="C140" t="s">
         <v>286</v>
       </c>
-      <c r="AG140">
+      <c r="AW140">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AH140" t="s">
+      <c r="AX140" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>572</v>
       </c>
@@ -10548,17 +11975,17 @@
       <c r="C141" t="s">
         <v>286</v>
       </c>
-      <c r="AG141">
+      <c r="AW141">
         <v>0.2</v>
       </c>
-      <c r="AH141" t="s">
+      <c r="AX141" t="s">
         <v>574</v>
       </c>
-      <c r="AM141" t="s">
+      <c r="BC141" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>579</v>
       </c>
@@ -10574,17 +12001,17 @@
       <c r="F142">
         <v>20</v>
       </c>
-      <c r="S142">
+      <c r="AI142">
         <v>167</v>
       </c>
-      <c r="T142" t="s">
+      <c r="AJ142" t="s">
         <v>582</v>
       </c>
-      <c r="AM142" t="s">
+      <c r="BC142" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>579</v>
       </c>
@@ -10600,17 +12027,17 @@
       <c r="F143">
         <v>20</v>
       </c>
-      <c r="S143">
+      <c r="AI143">
         <v>97</v>
       </c>
-      <c r="T143" t="s">
+      <c r="AJ143" t="s">
         <v>582</v>
       </c>
-      <c r="AM143" t="s">
+      <c r="BC143" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>604</v>
       </c>
@@ -10623,20 +12050,20 @@
       <c r="D144" t="s">
         <v>607</v>
       </c>
-      <c r="S144">
+      <c r="AI144">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="T144" t="s">
+      <c r="AJ144" t="s">
         <v>608</v>
       </c>
-      <c r="U144">
+      <c r="AK144">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AM144" t="s">
+      <c r="BC144" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>604</v>
       </c>
@@ -10649,20 +12076,20 @@
       <c r="D145" t="s">
         <v>90</v>
       </c>
-      <c r="S145">
+      <c r="AI145">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="T145" t="s">
+      <c r="AJ145" t="s">
         <v>609</v>
       </c>
-      <c r="U145">
+      <c r="AK145">
         <v>1E-3</v>
       </c>
-      <c r="AM145" t="s">
+      <c r="BC145" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>611</v>
       </c>
@@ -10681,17 +12108,17 @@
       <c r="F146">
         <v>18</v>
       </c>
-      <c r="AA146">
+      <c r="AQ146">
         <v>0.5</v>
       </c>
-      <c r="AB146" t="s">
+      <c r="AR146" t="s">
         <v>613</v>
       </c>
-      <c r="AC146">
+      <c r="AS146">
         <v>0.04</v>
       </c>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>617</v>
       </c>
@@ -10710,26 +12137,26 @@
       <c r="F147">
         <v>26</v>
       </c>
-      <c r="K147">
+      <c r="AA147">
         <v>13</v>
       </c>
-      <c r="L147" t="s">
+      <c r="AB147" t="s">
         <v>621</v>
       </c>
-      <c r="N147">
+      <c r="AD147">
         <v>10.3</v>
       </c>
-      <c r="O147" t="s">
+      <c r="AE147" t="s">
         <v>621</v>
       </c>
-      <c r="P147">
+      <c r="AF147">
         <v>10.3</v>
       </c>
-      <c r="AM147" t="s">
+      <c r="BC147" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>622</v>
       </c>
@@ -10742,26 +12169,26 @@
       <c r="E148">
         <v>4</v>
       </c>
-      <c r="K148">
+      <c r="AA148">
         <v>5.9</v>
       </c>
-      <c r="L148" t="s">
+      <c r="AB148" t="s">
         <v>625</v>
       </c>
-      <c r="N148">
+      <c r="AD148">
         <v>2.4</v>
       </c>
-      <c r="O148" t="s">
+      <c r="AE148" t="s">
         <v>625</v>
       </c>
-      <c r="P148">
+      <c r="AF148">
         <v>2.4</v>
       </c>
-      <c r="AG148">
+      <c r="AW148">
         <v>0.96</v>
       </c>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>626</v>
       </c>
@@ -10777,23 +12204,23 @@
       <c r="F149">
         <v>25</v>
       </c>
-      <c r="G149">
+      <c r="W149">
         <v>10</v>
       </c>
-      <c r="H149" t="s">
+      <c r="X149" t="s">
         <v>524</v>
       </c>
-      <c r="S149">
+      <c r="AI149">
         <v>4.2</v>
       </c>
-      <c r="T149" t="s">
+      <c r="AJ149" t="s">
         <v>628</v>
       </c>
-      <c r="AM149" t="s">
+      <c r="BC149" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>656</v>
       </c>
@@ -10809,23 +12236,23 @@
       <c r="F150">
         <v>25</v>
       </c>
-      <c r="G150">
+      <c r="W150">
         <v>20</v>
       </c>
-      <c r="H150" t="s">
+      <c r="X150" t="s">
         <v>524</v>
       </c>
-      <c r="S150">
+      <c r="AI150">
         <v>5.08</v>
       </c>
-      <c r="T150" t="s">
+      <c r="AJ150" t="s">
         <v>628</v>
       </c>
-      <c r="AM150" t="s">
+      <c r="BC150" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>657</v>
       </c>
@@ -10841,23 +12268,23 @@
       <c r="F151">
         <v>25</v>
       </c>
-      <c r="G151">
+      <c r="W151">
         <v>40</v>
       </c>
-      <c r="H151" t="s">
+      <c r="X151" t="s">
         <v>524</v>
       </c>
-      <c r="S151">
+      <c r="AI151">
         <v>5.0199999999999996</v>
       </c>
-      <c r="T151" t="s">
+      <c r="AJ151" t="s">
         <v>628</v>
       </c>
-      <c r="AM151" t="s">
+      <c r="BC151" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>658</v>
       </c>
@@ -10873,23 +12300,23 @@
       <c r="F152">
         <v>25</v>
       </c>
-      <c r="G152">
+      <c r="W152">
         <v>80</v>
       </c>
-      <c r="H152" t="s">
+      <c r="X152" t="s">
         <v>524</v>
       </c>
-      <c r="S152">
+      <c r="AI152">
         <v>11.47</v>
       </c>
-      <c r="T152" t="s">
+      <c r="AJ152" t="s">
         <v>628</v>
       </c>
-      <c r="AM152" t="s">
+      <c r="BC152" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>659</v>
       </c>
@@ -10905,23 +12332,23 @@
       <c r="F153">
         <v>25</v>
       </c>
-      <c r="G153">
+      <c r="W153">
         <v>160</v>
       </c>
-      <c r="H153" t="s">
+      <c r="X153" t="s">
         <v>524</v>
       </c>
-      <c r="S153">
+      <c r="AI153">
         <v>18.86</v>
       </c>
-      <c r="T153" t="s">
+      <c r="AJ153" t="s">
         <v>628</v>
       </c>
-      <c r="AM153" t="s">
+      <c r="BC153" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>653</v>
       </c>
@@ -10934,23 +12361,23 @@
       <c r="D154" t="s">
         <v>660</v>
       </c>
-      <c r="S154">
+      <c r="AI154">
         <v>5.2</v>
       </c>
-      <c r="T154" t="s">
+      <c r="AJ154" t="s">
         <v>661</v>
       </c>
-      <c r="AA154">
+      <c r="AQ154">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="AB154" t="s">
+      <c r="AR154" t="s">
         <v>308</v>
       </c>
-      <c r="AM154" t="s">
+      <c r="BC154" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>662</v>
       </c>
@@ -10963,23 +12390,23 @@
       <c r="D155" t="s">
         <v>660</v>
       </c>
-      <c r="S155">
+      <c r="AI155">
         <v>5.87</v>
       </c>
-      <c r="T155" t="s">
+      <c r="AJ155" t="s">
         <v>661</v>
       </c>
-      <c r="AA155">
+      <c r="AQ155">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="AB155" t="s">
+      <c r="AR155" t="s">
         <v>308</v>
       </c>
-      <c r="AM155" t="s">
+      <c r="BC155" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>663</v>
       </c>
@@ -10992,23 +12419,23 @@
       <c r="D156" t="s">
         <v>660</v>
       </c>
-      <c r="S156">
+      <c r="AI156">
         <v>6.14</v>
       </c>
-      <c r="T156" t="s">
+      <c r="AJ156" t="s">
         <v>661</v>
       </c>
-      <c r="AA156">
+      <c r="AQ156">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AB156" t="s">
+      <c r="AR156" t="s">
         <v>308</v>
       </c>
-      <c r="AM156" t="s">
+      <c r="BC156" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>664</v>
       </c>
@@ -11021,23 +12448,23 @@
       <c r="D157" t="s">
         <v>660</v>
       </c>
-      <c r="S157">
+      <c r="AI157">
         <v>6.21</v>
       </c>
-      <c r="T157" t="s">
+      <c r="AJ157" t="s">
         <v>661</v>
       </c>
-      <c r="AA157">
+      <c r="AQ157">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AB157" t="s">
+      <c r="AR157" t="s">
         <v>308</v>
       </c>
-      <c r="AM157" t="s">
+      <c r="BC157" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>665</v>
       </c>
@@ -11050,23 +12477,23 @@
       <c r="D158" t="s">
         <v>660</v>
       </c>
-      <c r="S158">
+      <c r="AI158">
         <v>6.46</v>
       </c>
-      <c r="T158" t="s">
+      <c r="AJ158" t="s">
         <v>661</v>
       </c>
-      <c r="AA158">
+      <c r="AQ158">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AB158" t="s">
+      <c r="AR158" t="s">
         <v>308</v>
       </c>
-      <c r="AM158" t="s">
+      <c r="BC158" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>674</v>
       </c>
@@ -11085,17 +12512,17 @@
       <c r="F159">
         <v>20</v>
       </c>
-      <c r="S159">
+      <c r="AI159">
         <v>1.6E-2</v>
       </c>
-      <c r="T159" t="s">
+      <c r="AJ159" t="s">
         <v>608</v>
       </c>
-      <c r="U159">
+      <c r="AK159">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>683</v>
       </c>
@@ -11114,17 +12541,17 @@
       <c r="F160">
         <v>20</v>
       </c>
-      <c r="S160">
+      <c r="AI160">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="T160" t="s">
+      <c r="AJ160" t="s">
         <v>608</v>
       </c>
-      <c r="U160">
+      <c r="AK160">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>684</v>
       </c>
@@ -11143,17 +12570,17 @@
       <c r="F161">
         <v>20</v>
       </c>
-      <c r="S161">
+      <c r="AI161">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T161" t="s">
+      <c r="AJ161" t="s">
         <v>608</v>
       </c>
-      <c r="U161">
+      <c r="AK161">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>685</v>
       </c>
@@ -11172,17 +12599,17 @@
       <c r="F162">
         <v>20</v>
       </c>
-      <c r="S162">
+      <c r="AI162">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="T162" t="s">
+      <c r="AJ162" t="s">
         <v>608</v>
       </c>
-      <c r="U162">
+      <c r="AK162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>686</v>
       </c>
@@ -11201,17 +12628,17 @@
       <c r="F163">
         <v>20</v>
       </c>
-      <c r="S163">
+      <c r="AI163">
         <v>2E-3</v>
       </c>
-      <c r="T163" t="s">
+      <c r="AJ163" t="s">
         <v>608</v>
       </c>
-      <c r="U163">
+      <c r="AK163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>687</v>
       </c>
@@ -11230,17 +12657,17 @@
       <c r="F164">
         <v>20</v>
       </c>
-      <c r="S164">
+      <c r="AI164">
         <v>0.01</v>
       </c>
-      <c r="T164" t="s">
+      <c r="AJ164" t="s">
         <v>608</v>
       </c>
-      <c r="U164">
+      <c r="AK164">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>703</v>
       </c>
@@ -11253,17 +12680,17 @@
       <c r="D165" t="s">
         <v>192</v>
       </c>
-      <c r="S165">
+      <c r="AI165">
         <v>0.13400000000000001</v>
       </c>
-      <c r="T165" t="s">
+      <c r="AJ165" t="s">
         <v>707</v>
       </c>
-      <c r="X165">
+      <c r="AN165">
         <v>0.01</v>
       </c>
     </row>
-    <row r="166" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>706</v>
       </c>
@@ -11276,17 +12703,17 @@
       <c r="D166" t="s">
         <v>607</v>
       </c>
-      <c r="S166">
+      <c r="AI166">
         <v>0.18</v>
       </c>
-      <c r="T166" t="s">
+      <c r="AJ166" t="s">
         <v>707</v>
       </c>
-      <c r="X166">
+      <c r="AN166">
         <v>0.01</v>
       </c>
     </row>
-    <row r="167" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>703</v>
       </c>
@@ -11299,17 +12726,17 @@
       <c r="D167" t="s">
         <v>192</v>
       </c>
-      <c r="S167">
+      <c r="AI167">
         <v>0.13900000000000001</v>
       </c>
-      <c r="T167" t="s">
+      <c r="AJ167" t="s">
         <v>707</v>
       </c>
-      <c r="X167">
+      <c r="AN167">
         <v>0.03</v>
       </c>
     </row>
-    <row r="168" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>706</v>
       </c>
@@ -11322,17 +12749,17 @@
       <c r="D168" t="s">
         <v>607</v>
       </c>
-      <c r="S168">
+      <c r="AI168">
         <v>0.17699999999999999</v>
       </c>
-      <c r="T168" t="s">
+      <c r="AJ168" t="s">
         <v>707</v>
       </c>
-      <c r="X168">
+      <c r="AN168">
         <v>0.01</v>
       </c>
     </row>
-    <row r="169" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>711</v>
       </c>
@@ -11351,27 +12778,27 @@
       <c r="F169">
         <v>27</v>
       </c>
-      <c r="K169">
+      <c r="AA169">
         <v>500</v>
       </c>
-      <c r="L169" t="s">
+      <c r="AB169" t="s">
         <v>713</v>
       </c>
-      <c r="N169">
+      <c r="AD169">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="O169" t="s">
+      <c r="AE169" t="s">
         <v>825</v>
       </c>
-      <c r="P169">
-        <f>N169*14.0067*1000</f>
+      <c r="AF169">
+        <f>AD169*14.0067*1000</f>
         <v>2.8013399999999997E-2</v>
       </c>
-      <c r="AM169" t="s">
+      <c r="BC169" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="170" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>715</v>
       </c>
@@ -11390,20 +12817,20 @@
       <c r="F170">
         <v>20</v>
       </c>
-      <c r="G170">
+      <c r="W170">
         <v>0</v>
       </c>
-      <c r="H170" t="s">
+      <c r="X170" t="s">
         <v>524</v>
       </c>
-      <c r="AA170">
+      <c r="AQ170">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="AB170" t="s">
+      <c r="AR170" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="171" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>719</v>
       </c>
@@ -11422,23 +12849,23 @@
       <c r="F171">
         <v>20</v>
       </c>
-      <c r="G171">
+      <c r="W171">
         <v>10</v>
       </c>
-      <c r="H171" t="s">
+      <c r="X171" t="s">
         <v>524</v>
       </c>
-      <c r="AA171">
+      <c r="AQ171">
         <v>0.20399999999999999</v>
       </c>
-      <c r="AB171" t="s">
+      <c r="AR171" t="s">
         <v>308</v>
       </c>
-      <c r="AL171">
+      <c r="BB171">
         <v>53.12</v>
       </c>
     </row>
-    <row r="172" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>720</v>
       </c>
@@ -11457,23 +12884,23 @@
       <c r="F172">
         <v>20</v>
       </c>
-      <c r="G172">
+      <c r="W172">
         <v>20</v>
       </c>
-      <c r="H172" t="s">
+      <c r="X172" t="s">
         <v>524</v>
       </c>
-      <c r="AA172">
+      <c r="AQ172">
         <v>0.22800000000000001</v>
       </c>
-      <c r="AB172" t="s">
+      <c r="AR172" t="s">
         <v>308</v>
       </c>
-      <c r="AL172">
+      <c r="BB172">
         <v>53.89</v>
       </c>
     </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>721</v>
       </c>
@@ -11492,23 +12919,23 @@
       <c r="F173">
         <v>20</v>
       </c>
-      <c r="G173">
+      <c r="W173">
         <v>40</v>
       </c>
-      <c r="H173" t="s">
+      <c r="X173" t="s">
         <v>524</v>
       </c>
-      <c r="AA173">
+      <c r="AQ173">
         <v>0.214</v>
       </c>
-      <c r="AB173" t="s">
+      <c r="AR173" t="s">
         <v>308</v>
       </c>
-      <c r="AL173">
+      <c r="BB173">
         <v>47.06</v>
       </c>
     </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>722</v>
       </c>
@@ -11527,23 +12954,23 @@
       <c r="F174">
         <v>20</v>
       </c>
-      <c r="G174">
+      <c r="W174">
         <v>50</v>
       </c>
-      <c r="H174" t="s">
+      <c r="X174" t="s">
         <v>524</v>
       </c>
-      <c r="AA174">
+      <c r="AQ174">
         <v>0.21199999999999999</v>
       </c>
-      <c r="AB174" t="s">
+      <c r="AR174" t="s">
         <v>308</v>
       </c>
-      <c r="AL174">
+      <c r="BB174">
         <v>36.93</v>
       </c>
     </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>723</v>
       </c>
@@ -11562,23 +12989,23 @@
       <c r="F175">
         <v>20</v>
       </c>
-      <c r="G175">
+      <c r="W175">
         <v>60</v>
       </c>
-      <c r="H175" t="s">
+      <c r="X175" t="s">
         <v>524</v>
       </c>
-      <c r="AA175">
+      <c r="AQ175">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AB175" t="s">
+      <c r="AR175" t="s">
         <v>308</v>
       </c>
-      <c r="AL175">
+      <c r="BB175">
         <v>35.56</v>
       </c>
     </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>724</v>
       </c>
@@ -11597,23 +13024,23 @@
       <c r="F176">
         <v>20</v>
       </c>
-      <c r="G176">
+      <c r="W176">
         <v>80</v>
       </c>
-      <c r="H176" t="s">
+      <c r="X176" t="s">
         <v>524</v>
       </c>
-      <c r="AA176">
+      <c r="AQ176">
         <v>0.219</v>
       </c>
-      <c r="AB176" t="s">
+      <c r="AR176" t="s">
         <v>308</v>
       </c>
-      <c r="AL176">
+      <c r="BB176">
         <v>22.66</v>
       </c>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>725</v>
       </c>
@@ -11632,23 +13059,23 @@
       <c r="F177">
         <v>20</v>
       </c>
-      <c r="G177">
+      <c r="W177">
         <v>125</v>
       </c>
-      <c r="H177" t="s">
+      <c r="X177" t="s">
         <v>524</v>
       </c>
-      <c r="AA177">
+      <c r="AQ177">
         <v>0.21299999999999999</v>
       </c>
-      <c r="AB177" t="s">
+      <c r="AR177" t="s">
         <v>308</v>
       </c>
-      <c r="AL177">
+      <c r="BB177">
         <v>17.89</v>
       </c>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>726</v>
       </c>
@@ -11667,23 +13094,23 @@
       <c r="F178">
         <v>20</v>
       </c>
-      <c r="G178">
+      <c r="W178">
         <v>250</v>
       </c>
-      <c r="H178" t="s">
+      <c r="X178" t="s">
         <v>524</v>
       </c>
-      <c r="AA178">
+      <c r="AQ178">
         <v>0.23599999999999999</v>
       </c>
-      <c r="AB178" t="s">
+      <c r="AR178" t="s">
         <v>308</v>
       </c>
-      <c r="AL178">
+      <c r="BB178">
         <v>7.44</v>
       </c>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>727</v>
       </c>
@@ -11702,23 +13129,23 @@
       <c r="F179">
         <v>20</v>
       </c>
-      <c r="G179">
+      <c r="W179">
         <v>500</v>
       </c>
-      <c r="H179" t="s">
+      <c r="X179" t="s">
         <v>524</v>
       </c>
-      <c r="AA179">
+      <c r="AQ179">
         <v>0.221</v>
       </c>
-      <c r="AB179" t="s">
+      <c r="AR179" t="s">
         <v>308</v>
       </c>
-      <c r="AL179">
+      <c r="BB179">
         <v>3.65</v>
       </c>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>728</v>
       </c>
@@ -11737,23 +13164,23 @@
       <c r="F180">
         <v>20</v>
       </c>
-      <c r="G180">
+      <c r="W180">
         <v>750</v>
       </c>
-      <c r="H180" t="s">
+      <c r="X180" t="s">
         <v>524</v>
       </c>
-      <c r="AA180">
+      <c r="AQ180">
         <v>0.20399999999999999</v>
       </c>
-      <c r="AB180" t="s">
+      <c r="AR180" t="s">
         <v>308</v>
       </c>
-      <c r="AL180">
+      <c r="BB180">
         <v>2.36</v>
       </c>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>729</v>
       </c>
@@ -11772,23 +13199,23 @@
       <c r="F181">
         <v>20</v>
       </c>
-      <c r="G181">
+      <c r="W181">
         <v>1000</v>
       </c>
-      <c r="H181" t="s">
+      <c r="X181" t="s">
         <v>524</v>
       </c>
-      <c r="AA181">
+      <c r="AQ181">
         <v>0.19900000000000001</v>
       </c>
-      <c r="AB181" t="s">
+      <c r="AR181" t="s">
         <v>308</v>
       </c>
-      <c r="AL181">
+      <c r="BB181">
         <v>1.75</v>
       </c>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>497</v>
       </c>
@@ -11804,23 +13231,23 @@
       <c r="E182">
         <v>3</v>
       </c>
-      <c r="G182">
+      <c r="W182">
         <v>2.5</v>
       </c>
-      <c r="H182" t="s">
+      <c r="X182" t="s">
         <v>750</v>
       </c>
-      <c r="AA182">
+      <c r="AQ182">
         <v>0.32</v>
       </c>
-      <c r="AB182" t="s">
+      <c r="AR182" t="s">
         <v>759</v>
       </c>
-      <c r="AC182">
+      <c r="AS182">
         <v>0.02</v>
       </c>
     </row>
-    <row r="183" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>751</v>
       </c>
@@ -11836,23 +13263,23 @@
       <c r="E183">
         <v>3</v>
       </c>
-      <c r="G183">
+      <c r="W183">
         <v>5</v>
       </c>
-      <c r="H183" t="s">
+      <c r="X183" t="s">
         <v>750</v>
       </c>
-      <c r="AA183">
+      <c r="AQ183">
         <v>0.48</v>
       </c>
-      <c r="AB183" t="s">
+      <c r="AR183" t="s">
         <v>759</v>
       </c>
-      <c r="AC183">
+      <c r="AS183">
         <v>0.03</v>
       </c>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>753</v>
       </c>
@@ -11868,23 +13295,23 @@
       <c r="E184">
         <v>3</v>
       </c>
-      <c r="G184">
+      <c r="W184">
         <v>10</v>
       </c>
-      <c r="H184" t="s">
+      <c r="X184" t="s">
         <v>750</v>
       </c>
-      <c r="AA184">
+      <c r="AQ184">
         <v>0.81</v>
       </c>
-      <c r="AB184" t="s">
+      <c r="AR184" t="s">
         <v>759</v>
       </c>
-      <c r="AC184">
+      <c r="AS184">
         <v>0.05</v>
       </c>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>755</v>
       </c>
@@ -11900,23 +13327,23 @@
       <c r="E185">
         <v>3</v>
       </c>
-      <c r="G185">
+      <c r="W185">
         <v>15</v>
       </c>
-      <c r="H185" t="s">
+      <c r="X185" t="s">
         <v>750</v>
       </c>
-      <c r="AA185">
+      <c r="AQ185">
         <v>1.01</v>
       </c>
-      <c r="AB185" t="s">
+      <c r="AR185" t="s">
         <v>759</v>
       </c>
-      <c r="AC185">
+      <c r="AS185">
         <v>0.03</v>
       </c>
     </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>757</v>
       </c>
@@ -11932,23 +13359,23 @@
       <c r="E186">
         <v>3</v>
       </c>
-      <c r="G186">
+      <c r="W186">
         <v>25</v>
       </c>
-      <c r="H186" t="s">
+      <c r="X186" t="s">
         <v>750</v>
       </c>
-      <c r="AA186">
+      <c r="AQ186">
         <v>1.34</v>
       </c>
-      <c r="AB186" t="s">
+      <c r="AR186" t="s">
         <v>759</v>
       </c>
-      <c r="AC186">
+      <c r="AS186">
         <v>0.08</v>
       </c>
     </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>770</v>
       </c>
@@ -11961,18 +13388,18 @@
       <c r="D187" t="s">
         <v>774</v>
       </c>
-      <c r="AG187">
+      <c r="AW187">
         <v>2.9</v>
       </c>
-      <c r="AH187" t="s">
+      <c r="AX187" t="s">
         <v>773</v>
       </c>
-      <c r="AJ187">
-        <f>7.76-AG187</f>
+      <c r="AZ187">
+        <f>7.76-AW187</f>
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>784</v>
       </c>
@@ -11982,20 +13409,20 @@
       <c r="E188">
         <v>6</v>
       </c>
-      <c r="AG188">
+      <c r="AW188">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="AH188" t="s">
+      <c r="AX188" t="s">
         <v>786</v>
       </c>
-      <c r="AI188">
+      <c r="AY188">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AM188" t="s">
+      <c r="BC188" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>787</v>
       </c>
@@ -12005,17 +13432,17 @@
       <c r="E189">
         <v>6</v>
       </c>
-      <c r="AG189">
+      <c r="AW189">
         <v>4.7E-2</v>
       </c>
-      <c r="AH189" t="s">
+      <c r="AX189" t="s">
         <v>786</v>
       </c>
-      <c r="AI189">
+      <c r="AY189">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>788</v>
       </c>
@@ -12025,17 +13452,17 @@
       <c r="E190">
         <v>6</v>
       </c>
-      <c r="AG190">
+      <c r="AW190">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="AH190" t="s">
+      <c r="AX190" t="s">
         <v>786</v>
       </c>
-      <c r="AI190">
+      <c r="AY190">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>789</v>
       </c>
@@ -12045,17 +13472,17 @@
       <c r="E191">
         <v>6</v>
       </c>
-      <c r="AG191">
+      <c r="AW191">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AH191" t="s">
+      <c r="AX191" t="s">
         <v>786</v>
       </c>
-      <c r="AI191">
+      <c r="AY191">
         <v>0.02</v>
       </c>
     </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>790</v>
       </c>
@@ -12065,17 +13492,17 @@
       <c r="E192">
         <v>6</v>
       </c>
-      <c r="AG192">
+      <c r="AW192">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AH192" t="s">
+      <c r="AX192" t="s">
         <v>786</v>
       </c>
-      <c r="AI192">
+      <c r="AY192">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>791</v>
       </c>
@@ -12085,17 +13512,17 @@
       <c r="E193">
         <v>6</v>
       </c>
-      <c r="AG193">
+      <c r="AW193">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="AH193" t="s">
+      <c r="AX193" t="s">
         <v>786</v>
       </c>
-      <c r="AI193">
+      <c r="AY193">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>796</v>
       </c>
@@ -12105,20 +13532,20 @@
       <c r="E194">
         <v>12</v>
       </c>
-      <c r="AG194">
+      <c r="AW194">
         <v>0.18</v>
       </c>
-      <c r="AH194" t="s">
+      <c r="AX194" t="s">
         <v>804</v>
       </c>
-      <c r="AK194">
+      <c r="BA194">
         <v>0.2114</v>
       </c>
-      <c r="AM194" t="s">
+      <c r="BC194" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>798</v>
       </c>
@@ -12128,20 +13555,20 @@
       <c r="E195">
         <v>15</v>
       </c>
-      <c r="AG195">
+      <c r="AW195">
         <v>0.05</v>
       </c>
-      <c r="AH195" t="s">
+      <c r="AX195" t="s">
         <v>804</v>
       </c>
-      <c r="AK195">
+      <c r="BA195">
         <v>0.06</v>
       </c>
-      <c r="AM195" t="s">
+      <c r="BC195" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>799</v>
       </c>
@@ -12151,20 +13578,20 @@
       <c r="E196">
         <v>9</v>
       </c>
-      <c r="AG196">
+      <c r="AW196">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AH196" t="s">
+      <c r="AX196" t="s">
         <v>804</v>
       </c>
-      <c r="AK196">
+      <c r="BA196">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AM196" t="s">
+      <c r="BC196" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>793</v>
       </c>
@@ -12174,20 +13601,20 @@
       <c r="E197">
         <v>9</v>
       </c>
-      <c r="AG197">
+      <c r="AW197">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AH197" t="s">
+      <c r="AX197" t="s">
         <v>804</v>
       </c>
-      <c r="AK197">
+      <c r="BA197">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AM197" t="s">
+      <c r="BC197" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>806</v>
       </c>
@@ -12197,17 +13624,17 @@
       <c r="E198">
         <v>3</v>
       </c>
-      <c r="AG198">
+      <c r="AW198">
         <v>55.41</v>
       </c>
-      <c r="AH198" t="s">
+      <c r="AX198" t="s">
         <v>808</v>
       </c>
-      <c r="AI198">
+      <c r="AY198">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>809</v>
       </c>
@@ -12217,17 +13644,17 @@
       <c r="E199">
         <v>3</v>
       </c>
-      <c r="AG199">
+      <c r="AW199">
         <v>8.2899999999999991</v>
       </c>
-      <c r="AH199" t="s">
+      <c r="AX199" t="s">
         <v>808</v>
       </c>
-      <c r="AI199">
+      <c r="AY199">
         <v>1.01</v>
       </c>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>810</v>
       </c>
@@ -12237,17 +13664,17 @@
       <c r="E200">
         <v>3</v>
       </c>
-      <c r="AG200">
+      <c r="AW200">
         <v>11.38</v>
       </c>
-      <c r="AH200" t="s">
+      <c r="AX200" t="s">
         <v>808</v>
       </c>
-      <c r="AI200">
+      <c r="AY200">
         <v>0.66</v>
       </c>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>811</v>
       </c>
@@ -12257,17 +13684,17 @@
       <c r="E201">
         <v>3</v>
       </c>
-      <c r="AG201">
+      <c r="AW201">
         <v>118.74</v>
       </c>
-      <c r="AH201" t="s">
+      <c r="AX201" t="s">
         <v>808</v>
       </c>
-      <c r="AI201">
+      <c r="AY201">
         <v>24.86</v>
       </c>
     </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>812</v>
       </c>
@@ -12277,17 +13704,17 @@
       <c r="E202">
         <v>3</v>
       </c>
-      <c r="AG202">
+      <c r="AW202">
         <v>146</v>
       </c>
-      <c r="AH202" t="s">
+      <c r="AX202" t="s">
         <v>808</v>
       </c>
-      <c r="AI202">
+      <c r="AY202">
         <v>70.97</v>
       </c>
     </row>
-    <row r="203" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>813</v>
       </c>
@@ -12297,17 +13724,17 @@
       <c r="E203">
         <v>3</v>
       </c>
-      <c r="AG203">
+      <c r="AW203">
         <v>47.97</v>
       </c>
-      <c r="AH203" t="s">
+      <c r="AX203" t="s">
         <v>808</v>
       </c>
-      <c r="AI203">
+      <c r="AY203">
         <v>2.6</v>
       </c>
     </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>814</v>
       </c>
@@ -12317,14 +13744,1208 @@
       <c r="E204">
         <v>3</v>
       </c>
-      <c r="AG204">
+      <c r="AW204">
         <v>20.329999999999998</v>
       </c>
-      <c r="AH204" t="s">
+      <c r="AX204" t="s">
         <v>808</v>
       </c>
-      <c r="AI204">
+      <c r="AY204">
         <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>828</v>
+      </c>
+      <c r="B205" t="s">
+        <v>829</v>
+      </c>
+      <c r="C205" t="s">
+        <v>832</v>
+      </c>
+      <c r="D205" t="s">
+        <v>833</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>20</v>
+      </c>
+      <c r="J205">
+        <f>31/8</f>
+        <v>3.875</v>
+      </c>
+      <c r="L205" t="s">
+        <v>842</v>
+      </c>
+      <c r="V205" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="206" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>846</v>
+      </c>
+      <c r="B206" t="s">
+        <v>847</v>
+      </c>
+      <c r="C206" t="s">
+        <v>832</v>
+      </c>
+      <c r="D206" t="s">
+        <v>833</v>
+      </c>
+      <c r="E206">
+        <v>4</v>
+      </c>
+      <c r="F206">
+        <v>20</v>
+      </c>
+      <c r="J206">
+        <f>83/25</f>
+        <v>3.32</v>
+      </c>
+      <c r="K206">
+        <f>((85/25)-J206)*2</f>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="L206" t="s">
+        <v>842</v>
+      </c>
+      <c r="M206">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N206">
+        <f>(9.8-9.7)*2</f>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="P206" t="s">
+        <v>852</v>
+      </c>
+      <c r="V206" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="207" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>853</v>
+      </c>
+      <c r="B207" t="s">
+        <v>854</v>
+      </c>
+      <c r="C207" t="s">
+        <v>832</v>
+      </c>
+      <c r="D207" t="s">
+        <v>833</v>
+      </c>
+      <c r="E207">
+        <v>10</v>
+      </c>
+      <c r="F207">
+        <v>24</v>
+      </c>
+      <c r="J207">
+        <f>102/70</f>
+        <v>1.4571428571428571</v>
+      </c>
+      <c r="K207">
+        <f>(134/70)-J207</f>
+        <v>0.4571428571428573</v>
+      </c>
+      <c r="L207" t="s">
+        <v>842</v>
+      </c>
+      <c r="M207">
+        <v>10.1</v>
+      </c>
+      <c r="N207">
+        <f>11.8-M207</f>
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="P207" t="s">
+        <v>852</v>
+      </c>
+      <c r="V207" t="s">
+        <v>855</v>
+      </c>
+      <c r="BC207" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="208" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>853</v>
+      </c>
+      <c r="B208" t="s">
+        <v>854</v>
+      </c>
+      <c r="C208" t="s">
+        <v>832</v>
+      </c>
+      <c r="D208" t="s">
+        <v>833</v>
+      </c>
+      <c r="E208">
+        <v>10</v>
+      </c>
+      <c r="F208">
+        <v>24</v>
+      </c>
+      <c r="J208">
+        <f>45.4/21</f>
+        <v>2.1619047619047618</v>
+      </c>
+      <c r="K208">
+        <f>(55.4/21)-J208</f>
+        <v>0.47619047619047628</v>
+      </c>
+      <c r="L208" t="s">
+        <v>842</v>
+      </c>
+      <c r="M208">
+        <v>9.4</v>
+      </c>
+      <c r="N208">
+        <f>10.2-M208</f>
+        <v>0.79999999999999893</v>
+      </c>
+      <c r="P208" t="s">
+        <v>852</v>
+      </c>
+      <c r="V208" t="s">
+        <v>855</v>
+      </c>
+      <c r="BC208" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="209" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>858</v>
+      </c>
+      <c r="B209" t="s">
+        <v>859</v>
+      </c>
+      <c r="C209" t="s">
+        <v>832</v>
+      </c>
+      <c r="D209" t="s">
+        <v>833</v>
+      </c>
+      <c r="E209">
+        <v>10</v>
+      </c>
+      <c r="F209">
+        <v>20</v>
+      </c>
+      <c r="J209">
+        <f>103.9/21</f>
+        <v>4.9476190476190478</v>
+      </c>
+      <c r="K209">
+        <f>(4.9/21)*SQRT(10)</f>
+        <v>0.73786478737262196</v>
+      </c>
+      <c r="L209" t="s">
+        <v>842</v>
+      </c>
+      <c r="M209">
+        <v>11.9</v>
+      </c>
+      <c r="N209">
+        <f>0.59*SQRT(10)</f>
+        <v>1.8657438194993439</v>
+      </c>
+      <c r="P209" t="s">
+        <v>852</v>
+      </c>
+      <c r="V209" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="210" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>861</v>
+      </c>
+      <c r="B210" t="s">
+        <v>862</v>
+      </c>
+      <c r="C210" t="s">
+        <v>832</v>
+      </c>
+      <c r="D210" t="s">
+        <v>833</v>
+      </c>
+      <c r="E210">
+        <v>15</v>
+      </c>
+      <c r="F210">
+        <v>22</v>
+      </c>
+      <c r="J210">
+        <f>67.05/21</f>
+        <v>3.1928571428571426</v>
+      </c>
+      <c r="K210">
+        <f>2.69/21</f>
+        <v>0.1280952380952381</v>
+      </c>
+      <c r="L210" t="s">
+        <v>842</v>
+      </c>
+      <c r="M210">
+        <v>8</v>
+      </c>
+      <c r="N210">
+        <v>0.27</v>
+      </c>
+      <c r="P210" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q210">
+        <v>20.7</v>
+      </c>
+      <c r="R210">
+        <v>0.26</v>
+      </c>
+      <c r="U210" t="s">
+        <v>875</v>
+      </c>
+      <c r="V210" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="211" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>870</v>
+      </c>
+      <c r="B211" t="s">
+        <v>871</v>
+      </c>
+      <c r="C211" t="s">
+        <v>832</v>
+      </c>
+      <c r="D211" t="s">
+        <v>833</v>
+      </c>
+      <c r="E211">
+        <v>6</v>
+      </c>
+      <c r="Q211">
+        <v>50.41</v>
+      </c>
+      <c r="S211" t="s">
+        <v>874</v>
+      </c>
+      <c r="U211" t="s">
+        <v>866</v>
+      </c>
+      <c r="V211" t="s">
+        <v>876</v>
+      </c>
+      <c r="AQ211">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AR211" t="s">
+        <v>878</v>
+      </c>
+      <c r="AT211" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="212" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C212" t="s">
+        <v>832</v>
+      </c>
+      <c r="D212" t="s">
+        <v>833</v>
+      </c>
+      <c r="E212">
+        <v>9</v>
+      </c>
+      <c r="F212">
+        <v>20</v>
+      </c>
+      <c r="Q212">
+        <v>28.4</v>
+      </c>
+      <c r="T212" t="s">
+        <v>886</v>
+      </c>
+      <c r="U212" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="213" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C213" t="s">
+        <v>832</v>
+      </c>
+      <c r="D213" t="s">
+        <v>833</v>
+      </c>
+      <c r="E213">
+        <v>10</v>
+      </c>
+      <c r="F213">
+        <v>20</v>
+      </c>
+      <c r="J213">
+        <f>30/21</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="K213">
+        <f>(36.8-30)/21*SQRT(10)</f>
+        <v>1.0239756232926176</v>
+      </c>
+      <c r="L213" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="214" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C214" t="s">
+        <v>832</v>
+      </c>
+      <c r="D214" t="s">
+        <v>833</v>
+      </c>
+      <c r="E214">
+        <v>10</v>
+      </c>
+      <c r="F214">
+        <v>20</v>
+      </c>
+      <c r="J214">
+        <f>140/20</f>
+        <v>7</v>
+      </c>
+      <c r="K214">
+        <f>(7.34/20)*SQRT(10)</f>
+        <v>1.1605559012817952</v>
+      </c>
+      <c r="L214" t="s">
+        <v>842</v>
+      </c>
+      <c r="M214">
+        <v>9.4</v>
+      </c>
+      <c r="N214">
+        <f>0.27*SQRT(10)</f>
+        <v>0.85381496824546255</v>
+      </c>
+      <c r="P214" t="s">
+        <v>852</v>
+      </c>
+      <c r="V214" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="215" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C215" t="s">
+        <v>832</v>
+      </c>
+      <c r="D215" t="s">
+        <v>833</v>
+      </c>
+      <c r="M215">
+        <v>5</v>
+      </c>
+      <c r="N215">
+        <v>1.3</v>
+      </c>
+      <c r="P215" t="s">
+        <v>915</v>
+      </c>
+      <c r="V215" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="216" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C216" t="s">
+        <v>832</v>
+      </c>
+      <c r="D216" t="s">
+        <v>833</v>
+      </c>
+      <c r="E216">
+        <v>3</v>
+      </c>
+      <c r="F216">
+        <v>20</v>
+      </c>
+      <c r="M216">
+        <v>7.9</v>
+      </c>
+      <c r="N216">
+        <v>0.3</v>
+      </c>
+      <c r="P216" t="s">
+        <v>852</v>
+      </c>
+      <c r="V216" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="217" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C217" t="s">
+        <v>832</v>
+      </c>
+      <c r="D217" t="s">
+        <v>833</v>
+      </c>
+      <c r="E217">
+        <v>20</v>
+      </c>
+      <c r="F217">
+        <v>19</v>
+      </c>
+      <c r="M217">
+        <v>12.8</v>
+      </c>
+      <c r="O217">
+        <v>0.3</v>
+      </c>
+      <c r="P217" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q217">
+        <v>85.8</v>
+      </c>
+      <c r="S217">
+        <v>10.9</v>
+      </c>
+      <c r="V217" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="218" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C218" t="s">
+        <v>832</v>
+      </c>
+      <c r="D218" t="s">
+        <v>833</v>
+      </c>
+      <c r="E218">
+        <v>20</v>
+      </c>
+      <c r="F218">
+        <v>19</v>
+      </c>
+      <c r="M218">
+        <v>12.1</v>
+      </c>
+      <c r="O218">
+        <v>0.1</v>
+      </c>
+      <c r="P218" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q218">
+        <v>74.2</v>
+      </c>
+      <c r="S218">
+        <v>13.5</v>
+      </c>
+      <c r="V218" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="219" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C219" t="s">
+        <v>832</v>
+      </c>
+      <c r="D219" t="s">
+        <v>833</v>
+      </c>
+      <c r="E219">
+        <v>20</v>
+      </c>
+      <c r="F219">
+        <v>19</v>
+      </c>
+      <c r="M219">
+        <v>11.8</v>
+      </c>
+      <c r="O219">
+        <v>0.2</v>
+      </c>
+      <c r="P219" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q219">
+        <v>40.5</v>
+      </c>
+      <c r="S219">
+        <v>3</v>
+      </c>
+      <c r="V219" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="220" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C220" t="s">
+        <v>832</v>
+      </c>
+      <c r="D220" t="s">
+        <v>833</v>
+      </c>
+      <c r="E220">
+        <v>20</v>
+      </c>
+      <c r="F220">
+        <v>19</v>
+      </c>
+      <c r="M220">
+        <v>11.8</v>
+      </c>
+      <c r="O220">
+        <v>0.3</v>
+      </c>
+      <c r="P220" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q220">
+        <v>76.8</v>
+      </c>
+      <c r="S220">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="V220" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="221" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C221" t="s">
+        <v>832</v>
+      </c>
+      <c r="D221" t="s">
+        <v>833</v>
+      </c>
+      <c r="E221">
+        <v>20</v>
+      </c>
+      <c r="F221">
+        <v>19</v>
+      </c>
+      <c r="M221">
+        <v>11.1</v>
+      </c>
+      <c r="O221">
+        <v>0.3</v>
+      </c>
+      <c r="P221" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q221">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="S221">
+        <v>11.7</v>
+      </c>
+      <c r="V221" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="222" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C222" t="s">
+        <v>832</v>
+      </c>
+      <c r="D222" t="s">
+        <v>833</v>
+      </c>
+      <c r="E222">
+        <v>20</v>
+      </c>
+      <c r="F222">
+        <v>19</v>
+      </c>
+      <c r="M222">
+        <v>11.7</v>
+      </c>
+      <c r="O222">
+        <v>0.9</v>
+      </c>
+      <c r="P222" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q222">
+        <v>48.3</v>
+      </c>
+      <c r="S222">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="V222" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="223" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C223" t="s">
+        <v>832</v>
+      </c>
+      <c r="D223" t="s">
+        <v>833</v>
+      </c>
+      <c r="E223">
+        <v>15</v>
+      </c>
+      <c r="F223">
+        <v>22</v>
+      </c>
+      <c r="J223">
+        <f>131.7/21</f>
+        <v>6.2714285714285705</v>
+      </c>
+      <c r="K223">
+        <f>(7.5/21)*SQRT(15)</f>
+        <v>1.3832083379312203</v>
+      </c>
+      <c r="L223" t="s">
+        <v>842</v>
+      </c>
+      <c r="M223">
+        <v>7.8</v>
+      </c>
+      <c r="N223">
+        <f>0.2*SQRT(15)</f>
+        <v>0.7745966692414834</v>
+      </c>
+      <c r="P223" t="s">
+        <v>852</v>
+      </c>
+      <c r="V223" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="224" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C224" t="s">
+        <v>832</v>
+      </c>
+      <c r="D224" t="s">
+        <v>833</v>
+      </c>
+      <c r="E224">
+        <v>15</v>
+      </c>
+      <c r="F224">
+        <v>22</v>
+      </c>
+      <c r="J224">
+        <f>131.7/21</f>
+        <v>6.2714285714285705</v>
+      </c>
+      <c r="K224">
+        <f>15.1/21</f>
+        <v>0.71904761904761905</v>
+      </c>
+      <c r="L224" t="s">
+        <v>842</v>
+      </c>
+      <c r="M224">
+        <v>7.8</v>
+      </c>
+      <c r="N224">
+        <v>0.3</v>
+      </c>
+      <c r="P224" t="s">
+        <v>951</v>
+      </c>
+      <c r="V224" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="225" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C225" t="s">
+        <v>832</v>
+      </c>
+      <c r="D225" t="s">
+        <v>833</v>
+      </c>
+      <c r="E225">
+        <v>10</v>
+      </c>
+      <c r="F225">
+        <v>20</v>
+      </c>
+      <c r="J225">
+        <f>68/21</f>
+        <v>3.2380952380952381</v>
+      </c>
+      <c r="K225">
+        <f>((69.5-68)/21)*SQRT(10)</f>
+        <v>0.22587697572631282</v>
+      </c>
+      <c r="L225" t="s">
+        <v>842</v>
+      </c>
+      <c r="V225" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="226" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C226" t="s">
+        <v>832</v>
+      </c>
+      <c r="D226" t="s">
+        <v>833</v>
+      </c>
+      <c r="E226">
+        <v>10</v>
+      </c>
+      <c r="F226">
+        <v>22</v>
+      </c>
+      <c r="J226">
+        <f>201.67/21</f>
+        <v>9.6033333333333335</v>
+      </c>
+      <c r="K226">
+        <f>26.31/21</f>
+        <v>1.2528571428571429</v>
+      </c>
+      <c r="L226" t="s">
+        <v>842</v>
+      </c>
+      <c r="M226">
+        <v>9.67</v>
+      </c>
+      <c r="N226">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P226" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="227" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C227" t="s">
+        <v>832</v>
+      </c>
+      <c r="D227" t="s">
+        <v>833</v>
+      </c>
+      <c r="E227">
+        <v>4</v>
+      </c>
+      <c r="F227">
+        <v>23</v>
+      </c>
+      <c r="G227">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H227">
+        <f>(2.3-2.2)*2</f>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I227" t="s">
+        <v>969</v>
+      </c>
+      <c r="V227" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="228" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="C228" t="s">
+        <v>832</v>
+      </c>
+      <c r="D228" t="s">
+        <v>833</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <v>21</v>
+      </c>
+      <c r="G228">
+        <f>470/150</f>
+        <v>3.1333333333333333</v>
+      </c>
+      <c r="H228">
+        <f>((487-470)/150)*SQRT(2)</f>
+        <v>0.16027753706895079</v>
+      </c>
+      <c r="I228" t="s">
+        <v>975</v>
+      </c>
+      <c r="V228" t="s">
+        <v>972</v>
+      </c>
+      <c r="BC228" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="229" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="C229" t="s">
+        <v>832</v>
+      </c>
+      <c r="D229" t="s">
+        <v>833</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+      <c r="F229">
+        <v>21</v>
+      </c>
+      <c r="G229">
+        <f>626/150</f>
+        <v>4.1733333333333329</v>
+      </c>
+      <c r="H229">
+        <f>((642-626)/150)*SQRT(2)</f>
+        <v>0.15084944665313016</v>
+      </c>
+      <c r="I229" t="s">
+        <v>975</v>
+      </c>
+      <c r="V229" t="s">
+        <v>972</v>
+      </c>
+      <c r="BC229" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="230" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C230" t="s">
+        <v>832</v>
+      </c>
+      <c r="D230" t="s">
+        <v>833</v>
+      </c>
+      <c r="E230">
+        <v>5</v>
+      </c>
+      <c r="G230">
+        <v>13</v>
+      </c>
+      <c r="H230">
+        <v>22</v>
+      </c>
+      <c r="I230" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="231" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C231" t="s">
+        <v>832</v>
+      </c>
+      <c r="D231" t="s">
+        <v>833</v>
+      </c>
+      <c r="E231">
+        <v>5</v>
+      </c>
+      <c r="G231">
+        <v>20</v>
+      </c>
+      <c r="H231">
+        <v>4</v>
+      </c>
+      <c r="I231" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="232" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C232" t="s">
+        <v>832</v>
+      </c>
+      <c r="D232" t="s">
+        <v>833</v>
+      </c>
+      <c r="E232">
+        <v>5</v>
+      </c>
+      <c r="G232">
+        <v>35</v>
+      </c>
+      <c r="H232">
+        <v>16</v>
+      </c>
+      <c r="I232" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="233" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C233" t="s">
+        <v>832</v>
+      </c>
+      <c r="D233" t="s">
+        <v>833</v>
+      </c>
+      <c r="E233">
+        <v>5</v>
+      </c>
+      <c r="G233">
+        <v>17</v>
+      </c>
+      <c r="H233">
+        <v>3</v>
+      </c>
+      <c r="I233" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="234" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C234" t="s">
+        <v>832</v>
+      </c>
+      <c r="D234" t="s">
+        <v>833</v>
+      </c>
+      <c r="E234">
+        <v>5</v>
+      </c>
+      <c r="G234">
+        <v>20</v>
+      </c>
+      <c r="H234">
+        <v>4</v>
+      </c>
+      <c r="I234" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="235" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C235" t="s">
+        <v>832</v>
+      </c>
+      <c r="D235" t="s">
+        <v>833</v>
+      </c>
+      <c r="E235">
+        <v>5</v>
+      </c>
+      <c r="G235">
+        <v>34</v>
+      </c>
+      <c r="H235">
+        <v>8</v>
+      </c>
+      <c r="I235" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="236" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C236" t="s">
+        <v>832</v>
+      </c>
+      <c r="D236" t="s">
+        <v>833</v>
+      </c>
+      <c r="E236">
+        <v>5</v>
+      </c>
+      <c r="G236">
+        <v>18</v>
+      </c>
+      <c r="H236">
+        <v>11</v>
+      </c>
+      <c r="I236" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="237" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C237" t="s">
+        <v>832</v>
+      </c>
+      <c r="D237" t="s">
+        <v>833</v>
+      </c>
+      <c r="E237">
+        <v>5</v>
+      </c>
+      <c r="G237">
+        <v>28</v>
+      </c>
+      <c r="H237">
+        <v>12</v>
+      </c>
+      <c r="I237" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="238" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C238" t="s">
+        <v>832</v>
+      </c>
+      <c r="D238" t="s">
+        <v>833</v>
+      </c>
+      <c r="E238">
+        <v>5</v>
+      </c>
+      <c r="G238">
+        <v>21</v>
+      </c>
+      <c r="H238">
+        <v>3</v>
+      </c>
+      <c r="I238" t="s">
+        <v>1007</v>
       </c>
     </row>
   </sheetData>

--- a/literature_extraction.xlsx
+++ b/literature_extraction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jower\OneDrive\Documents\GitHub\Species-Traits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3622" documentId="8_{8303F361-5CFA-49CF-93EB-E47B0D017CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B1A55F78-9057-4AA5-AA7A-9DE88FF9CF80}"/>
+  <xr:revisionPtr revIDLastSave="3627" documentId="8_{8303F361-5CFA-49CF-93EB-E47B0D017CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BA26B6B1-ABBB-49AF-B888-588EA6CF59CC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{163C3060-5853-4BB6-B46C-A85E56A5A6D8}"/>
+    <workbookView xWindow="1485" yWindow="1335" windowWidth="16725" windowHeight="13725" xr2:uid="{163C3060-5853-4BB6-B46C-A85E56A5A6D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3566" uniqueCount="1262">
   <si>
     <t>Title</t>
   </si>
@@ -3810,6 +3810,15 @@
   </si>
   <si>
     <t>gives error of +/- 0.473 but doesn't say what type of error also doesn't account for chl amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miyazaki et al </t>
+  </si>
+  <si>
+    <t>Effects of Ammonium concentration and dilution on the competition between cyanobacterium microcystis novacekii and the green alga scenedesmus quadricuada</t>
+  </si>
+  <si>
+    <t>max uptake</t>
   </si>
 </sst>
 </file>
@@ -4207,10 +4216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4942DADD-73DC-45E2-A058-0029641B6054}">
-  <dimension ref="A1:G297"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
-    <sheetView topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="F298" sqref="F298"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="A298" sqref="A298:B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9343,6 +9352,20 @@
         <v>919</v>
       </c>
     </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="10" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9353,9 +9376,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C553106-9EFB-4C5F-86D3-BA2759CF7F90}">
   <dimension ref="A1:BP344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ1" sqref="AZ1:AZ1048576"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AW78" sqref="AW78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/literature_extraction.xlsx
+++ b/literature_extraction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3627" documentId="8_{8303F361-5CFA-49CF-93EB-E47B0D017CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BA26B6B1-ABBB-49AF-B888-588EA6CF59CC}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1335" windowWidth="16725" windowHeight="13725" xr2:uid="{163C3060-5853-4BB6-B46C-A85E56A5A6D8}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="22635" windowHeight="12510" xr2:uid="{163C3060-5853-4BB6-B46C-A85E56A5A6D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4218,8 +4218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4942DADD-73DC-45E2-A058-0029641B6054}">
   <dimension ref="A1:G298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="A298" sqref="A298:B298"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/literature_extraction.xlsx
+++ b/literature_extraction.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jower\OneDrive\Documents\GitHub\Species-Traits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jo\OneDrive\Documents\GitHub\Species-Traits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3627" documentId="8_{8303F361-5CFA-49CF-93EB-E47B0D017CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BA26B6B1-ABBB-49AF-B888-588EA6CF59CC}"/>
+  <xr:revisionPtr revIDLastSave="3630" documentId="8_{8303F361-5CFA-49CF-93EB-E47B0D017CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0AEAFDC1-1549-49FC-981C-81107BBD03C9}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="22635" windowHeight="12510" xr2:uid="{163C3060-5853-4BB6-B46C-A85E56A5A6D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{163C3060-5853-4BB6-B46C-A85E56A5A6D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3566" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="1263">
   <si>
     <t>Title</t>
   </si>
@@ -3819,6 +3819,9 @@
   </si>
   <si>
     <t>max uptake</t>
+  </si>
+  <si>
+    <t>also has survival curves, feeding only reported on cyano??</t>
   </si>
 </sst>
 </file>
@@ -4218,8 +4221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4942DADD-73DC-45E2-A058-0029641B6054}">
   <dimension ref="A1:G298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="E290" sqref="E290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9114,21 +9117,24 @@
         <v>245</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="10" t="s">
+    <row r="284" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="12" t="s">
         <v>1199</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" s="5" t="s">
         <v>1042</v>
       </c>
-      <c r="D284" s="2" t="s">
+      <c r="D284" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="E284" s="2" t="s">
+      <c r="E284" s="5" t="s">
         <v>1042</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="285" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
